--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.63919837323298</v>
+        <v>15.63919837323296</v>
       </c>
       <c r="C2">
-        <v>9.801091873015121</v>
+        <v>9.801091873015315</v>
       </c>
       <c r="D2">
-        <v>4.140826574937456</v>
+        <v>4.140826574937476</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.21702940543514</v>
+        <v>36.21702940543521</v>
       </c>
       <c r="G2">
-        <v>28.43284245310821</v>
+        <v>28.43284245310829</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.70436148024839</v>
+        <v>13.70436148024842</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.57583601157115</v>
+        <v>14.57583601157121</v>
       </c>
       <c r="C3">
-        <v>9.264179004007959</v>
+        <v>9.264179004008062</v>
       </c>
       <c r="D3">
-        <v>4.166061408061579</v>
+        <v>4.16606140806159</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.30833349652694</v>
+        <v>34.30833349652697</v>
       </c>
       <c r="G3">
         <v>27.08351617918242</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.86102861300753</v>
+        <v>12.8610286130076</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.56867229480509</v>
+        <v>27.56867229480498</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88810732242608</v>
+        <v>13.88810732242611</v>
       </c>
       <c r="C4">
-        <v>8.918998366203869</v>
+        <v>8.918998366203857</v>
       </c>
       <c r="D4">
-        <v>4.182179712054287</v>
+        <v>4.182179712054292</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.1190354812904</v>
+        <v>33.11903548129051</v>
       </c>
       <c r="G4">
-        <v>26.24919642786492</v>
+        <v>26.24919642786503</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.31724903603739</v>
+        <v>12.31724903603743</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.08828839503122</v>
+        <v>26.0882883950312</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.59899778178113</v>
+        <v>13.59899778178127</v>
       </c>
       <c r="C5">
-        <v>8.774453769112805</v>
+        <v>8.774453769112817</v>
       </c>
       <c r="D5">
-        <v>4.188890105948061</v>
+        <v>4.188890105947996</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.6303179628671</v>
+        <v>32.63031796286699</v>
       </c>
       <c r="G5">
-        <v>25.90793677820244</v>
+        <v>25.90793677820234</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.08910004727531</v>
+        <v>12.08910004727544</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.47255777415557</v>
+        <v>25.47255777415562</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,7 +567,7 @@
         <v>13.5504538058209</v>
       </c>
       <c r="C6">
-        <v>8.750218682765594</v>
+        <v>8.750218682765395</v>
       </c>
       <c r="D6">
         <v>4.190012548135428</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.54893204257957</v>
+        <v>32.54893204257959</v>
       </c>
       <c r="G6">
-        <v>25.85120160794531</v>
+        <v>25.85120160794533</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.0508197883918</v>
+        <v>12.05081978839177</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.36953579783532</v>
+        <v>25.36953579783535</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88424426792894</v>
+        <v>13.88424426792896</v>
       </c>
       <c r="C7">
-        <v>8.917064664931743</v>
+        <v>8.91706466493152</v>
       </c>
       <c r="D7">
         <v>4.182269653649414</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.11246046111013</v>
+        <v>33.11246046111014</v>
       </c>
       <c r="G7">
-        <v>26.24459889433894</v>
+        <v>26.24459889433896</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.31419869911166</v>
+        <v>12.31419869911161</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27971641594751</v>
+        <v>15.27971641594759</v>
       </c>
       <c r="C8">
-        <v>9.619193199389942</v>
+        <v>9.619193199389931</v>
       </c>
       <c r="D8">
-        <v>4.149388364745001</v>
+        <v>4.149388364744707</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.56264893816992</v>
+        <v>35.56264893816996</v>
       </c>
       <c r="G8">
-        <v>27.968897436897</v>
+        <v>27.96889743689697</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.10867211406706</v>
+        <v>29.10867211406704</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74473883714085</v>
+        <v>17.74473883714099</v>
       </c>
       <c r="C9">
-        <v>10.8725673800029</v>
+        <v>10.8725673800028</v>
       </c>
       <c r="D9">
-        <v>4.090667951455988</v>
+        <v>4.090667951455961</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.2239836969174</v>
+        <v>40.22398369691766</v>
       </c>
       <c r="G9">
-        <v>31.30005791742993</v>
+        <v>31.3000579174301</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.38109452230123</v>
+        <v>15.38109452230128</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.74513532575091</v>
+        <v>34.74513532575084</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.39737117832248</v>
+        <v>19.39737117832237</v>
       </c>
       <c r="C10">
-        <v>11.71799012080465</v>
+        <v>11.71799012080475</v>
       </c>
       <c r="D10">
-        <v>4.052442704665017</v>
+        <v>4.052442704665114</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.56494895518646</v>
+        <v>43.56494895518644</v>
       </c>
       <c r="G10">
-        <v>33.71979451224078</v>
+        <v>33.71979451224076</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.70139410411585</v>
+        <v>16.7013941041158</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.80542412573028</v>
+        <v>38.80542412573031</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11645062410264</v>
+        <v>20.11645062410265</v>
       </c>
       <c r="C11">
-        <v>12.0861632166831</v>
+        <v>12.08616321668326</v>
       </c>
       <c r="D11">
-        <v>4.036542609010955</v>
+        <v>4.036542609010967</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.07124529006843</v>
+        <v>45.07124529006861</v>
       </c>
       <c r="G11">
-        <v>34.81802220745989</v>
+        <v>34.81802220746</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.27653466846131</v>
+        <v>17.27653466846142</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.66833520053482</v>
+        <v>40.66833520053484</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.384183426058</v>
+        <v>20.38418342605809</v>
       </c>
       <c r="C12">
-        <v>12.22319751892466</v>
+        <v>12.22319751892455</v>
       </c>
       <c r="D12">
-        <v>4.030782457328423</v>
+        <v>4.030782457328455</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.64039010884771</v>
+        <v>45.64039010884794</v>
       </c>
       <c r="G12">
-        <v>35.23405670789927</v>
+        <v>35.23405670789946</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17.49073060143403</v>
+        <v>17.49073060143406</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.38005506905326</v>
+        <v>41.38005506905322</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.32672331714782</v>
+        <v>20.32672331714779</v>
       </c>
       <c r="C13">
-        <v>12.19379149298952</v>
+        <v>12.19379149298953</v>
       </c>
       <c r="D13">
-        <v>4.032010533661822</v>
+        <v>4.032010533661828</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.51785615300948</v>
+        <v>45.51785615300938</v>
       </c>
       <c r="G13">
-        <v>35.14443817945519</v>
+        <v>35.14443817945514</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.22641521113456</v>
+        <v>41.2264152111345</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.13856790759519</v>
+        <v>20.13856790759508</v>
       </c>
       <c r="C14">
-        <v>12.09748514649794</v>
+        <v>12.09748514649809</v>
       </c>
       <c r="D14">
-        <v>4.036063179449834</v>
+        <v>4.036063179449986</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.11808931304363</v>
+        <v>45.11808931304378</v>
       </c>
       <c r="G14">
-        <v>34.85224255769858</v>
+        <v>34.85224255769871</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17.29422844719596</v>
+        <v>17.2942284471959</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.72673508713851</v>
+        <v>40.72673508713856</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.02272659999917</v>
+        <v>20.02272659999925</v>
       </c>
       <c r="C15">
         <v>12.03818296352626</v>
       </c>
       <c r="D15">
-        <v>4.038581103213793</v>
+        <v>4.038581103213833</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.87308257852258</v>
+        <v>44.87308257852261</v>
       </c>
       <c r="G15">
-        <v>34.67330468924242</v>
+        <v>34.67330468924244</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17.20155764128984</v>
+        <v>17.20155764128991</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.42162629190112</v>
+        <v>40.42162629190098</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.34973108225426</v>
+        <v>19.34973108225429</v>
       </c>
       <c r="C16">
         <v>11.69359730707617</v>
       </c>
       <c r="D16">
-        <v>4.053515514675285</v>
+        <v>4.053515514675293</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>43.46628884821327</v>
       </c>
       <c r="G16">
-        <v>33.64801136718466</v>
+        <v>33.64801136718465</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>16.66330050724322</v>
+        <v>16.66330050724327</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.68430924878655</v>
+        <v>38.68430924878658</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.92858878463022</v>
+        <v>18.92858878463012</v>
       </c>
       <c r="C17">
         <v>11.47799075908721</v>
       </c>
       <c r="D17">
-        <v>4.063088459175942</v>
+        <v>4.063088459176002</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.60020122631046</v>
+        <v>42.60020122631039</v>
       </c>
       <c r="G17">
-        <v>33.01868202493421</v>
+        <v>33.01868202493419</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.32662165326654</v>
+        <v>16.32662165326645</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.62503161166295</v>
+        <v>37.62503161166282</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.68327148092612</v>
+        <v>18.68327148092611</v>
       </c>
       <c r="C18">
-        <v>11.35243698820481</v>
+        <v>11.35243698820505</v>
       </c>
       <c r="D18">
-        <v>4.068731314447387</v>
+        <v>4.068731314447426</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.10072080821231</v>
+        <v>42.10072080821227</v>
       </c>
       <c r="G18">
-        <v>32.65642777016039</v>
+        <v>32.65642777016033</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.13057161465224</v>
+        <v>16.13057161465228</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.01695569571184</v>
+        <v>37.01695569571171</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.59967685305993</v>
+        <v>18.59967685305997</v>
       </c>
       <c r="C19">
-        <v>11.3096620747947</v>
+        <v>11.30966207479462</v>
       </c>
       <c r="D19">
-        <v>4.07066412854201</v>
+        <v>4.070664128541837</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.93136068403903</v>
+        <v>41.93136068403901</v>
       </c>
       <c r="G19">
-        <v>32.53371425886829</v>
+        <v>32.53371425886827</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.06377794641528</v>
+        <v>16.06377794641533</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.81117539506456</v>
+        <v>36.81117539506454</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.97373864712801</v>
+        <v>18.9737386471281</v>
       </c>
       <c r="C20">
-        <v>11.50110219650739</v>
+        <v>11.50110219650737</v>
       </c>
       <c r="D20">
-        <v>4.062054946600161</v>
+        <v>4.062054946600225</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.69253131097015</v>
+        <v>42.69253131097019</v>
       </c>
       <c r="G20">
-        <v>33.0857012070356</v>
+        <v>33.08570120703563</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>16.36270972154657</v>
+        <v>16.36270972154664</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19395656749997</v>
+        <v>20.19395656749993</v>
       </c>
       <c r="C21">
-        <v>12.12583771237213</v>
+        <v>12.12583771237226</v>
       </c>
       <c r="D21">
-        <v>4.034865307491212</v>
+        <v>4.03486530749105</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.23553760105782</v>
+        <v>45.23553760105781</v>
       </c>
       <c r="G21">
-        <v>34.93805779003489</v>
+        <v>34.93805779003487</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.33853998674789</v>
+        <v>17.33853998674788</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.87329401274265</v>
+        <v>40.87329401274273</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.9648815500156</v>
+        <v>20.96488155001574</v>
       </c>
       <c r="C22">
-        <v>12.52020174826996</v>
+        <v>12.5202017482699</v>
       </c>
       <c r="D22">
-        <v>4.018646855844322</v>
+        <v>4.018646855844373</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.89077835048892</v>
+        <v>46.89077835048906</v>
       </c>
       <c r="G22">
-        <v>36.15004493857103</v>
+        <v>36.1500449385711</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.95535521973033</v>
+        <v>17.95535521973044</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.96222903220919</v>
+        <v>42.96222903220935</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.55580960753985</v>
+        <v>20.55580960753979</v>
       </c>
       <c r="C23">
-        <v>12.31101392694655</v>
+        <v>12.31101392694636</v>
       </c>
       <c r="D23">
-        <v>4.027142242841939</v>
+        <v>4.027142242842143</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.00764960938833</v>
+        <v>46.00764960938827</v>
       </c>
       <c r="G23">
-        <v>35.50281907348044</v>
+        <v>35.50281907348042</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>17.62804713284662</v>
+        <v>17.62804713284655</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.84197278126307</v>
+        <v>41.84197278126313</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95333636259249</v>
+        <v>18.95333636259261</v>
       </c>
       <c r="C24">
-        <v>11.49065849383547</v>
+        <v>11.49065849383524</v>
       </c>
       <c r="D24">
-        <v>4.062521767297877</v>
+        <v>4.062521767298055</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.65079377108811</v>
+        <v>42.65079377108817</v>
       </c>
       <c r="G24">
-        <v>33.05540325510719</v>
+        <v>33.05540325510724</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.34640206330002</v>
+        <v>16.34640206330005</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.68673010359593</v>
+        <v>37.68673010359608</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10624384834878</v>
+        <v>17.10624384834856</v>
       </c>
       <c r="C25">
-        <v>10.54674284529472</v>
+        <v>10.54674284529474</v>
       </c>
       <c r="D25">
-        <v>4.10580953995823</v>
+        <v>4.10580953995833</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.97854996672601</v>
+        <v>38.97854996672592</v>
       </c>
       <c r="G25">
-        <v>30.40440196580995</v>
+        <v>30.40440196580992</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.87185031130647</v>
+        <v>14.87185031130632</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.24353522568397</v>
+        <v>33.24353522568381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.63919837323296</v>
+        <v>15.63919837323298</v>
       </c>
       <c r="C2">
-        <v>9.801091873015315</v>
+        <v>9.801091873015121</v>
       </c>
       <c r="D2">
-        <v>4.140826574937476</v>
+        <v>4.140826574937456</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.21702940543521</v>
+        <v>36.21702940543514</v>
       </c>
       <c r="G2">
-        <v>28.43284245310829</v>
+        <v>28.43284245310821</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.70436148024842</v>
+        <v>13.70436148024839</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.57583601157121</v>
+        <v>14.57583601157115</v>
       </c>
       <c r="C3">
-        <v>9.264179004008062</v>
+        <v>9.264179004007959</v>
       </c>
       <c r="D3">
-        <v>4.16606140806159</v>
+        <v>4.166061408061579</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.30833349652697</v>
+        <v>34.30833349652694</v>
       </c>
       <c r="G3">
         <v>27.08351617918242</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.8610286130076</v>
+        <v>12.86102861300753</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.56867229480498</v>
+        <v>27.56867229480509</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88810732242611</v>
+        <v>13.88810732242608</v>
       </c>
       <c r="C4">
-        <v>8.918998366203857</v>
+        <v>8.918998366203869</v>
       </c>
       <c r="D4">
-        <v>4.182179712054292</v>
+        <v>4.182179712054287</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.11903548129051</v>
+        <v>33.1190354812904</v>
       </c>
       <c r="G4">
-        <v>26.24919642786503</v>
+        <v>26.24919642786492</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.31724903603743</v>
+        <v>12.31724903603739</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.0882883950312</v>
+        <v>26.08828839503122</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.59899778178127</v>
+        <v>13.59899778178113</v>
       </c>
       <c r="C5">
-        <v>8.774453769112817</v>
+        <v>8.774453769112805</v>
       </c>
       <c r="D5">
-        <v>4.188890105947996</v>
+        <v>4.188890105948061</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.63031796286699</v>
+        <v>32.6303179628671</v>
       </c>
       <c r="G5">
-        <v>25.90793677820234</v>
+        <v>25.90793677820244</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.08910004727544</v>
+        <v>12.08910004727531</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.47255777415562</v>
+        <v>25.47255777415557</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,7 +567,7 @@
         <v>13.5504538058209</v>
       </c>
       <c r="C6">
-        <v>8.750218682765395</v>
+        <v>8.750218682765594</v>
       </c>
       <c r="D6">
         <v>4.190012548135428</v>
@@ -576,10 +576,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.54893204257959</v>
+        <v>32.54893204257957</v>
       </c>
       <c r="G6">
-        <v>25.85120160794533</v>
+        <v>25.85120160794531</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.05081978839177</v>
+        <v>12.0508197883918</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.36953579783535</v>
+        <v>25.36953579783532</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88424426792896</v>
+        <v>13.88424426792894</v>
       </c>
       <c r="C7">
-        <v>8.91706466493152</v>
+        <v>8.917064664931743</v>
       </c>
       <c r="D7">
         <v>4.182269653649414</v>
@@ -614,10 +614,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.11246046111014</v>
+        <v>33.11246046111013</v>
       </c>
       <c r="G7">
-        <v>26.24459889433896</v>
+        <v>26.24459889433894</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.31419869911161</v>
+        <v>12.31419869911166</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27971641594759</v>
+        <v>15.27971641594751</v>
       </c>
       <c r="C8">
-        <v>9.619193199389931</v>
+        <v>9.619193199389942</v>
       </c>
       <c r="D8">
-        <v>4.149388364744707</v>
+        <v>4.149388364745001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.56264893816996</v>
+        <v>35.56264893816992</v>
       </c>
       <c r="G8">
-        <v>27.96889743689697</v>
+        <v>27.968897436897</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.10867211406704</v>
+        <v>29.10867211406706</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74473883714099</v>
+        <v>17.74473883714085</v>
       </c>
       <c r="C9">
-        <v>10.8725673800028</v>
+        <v>10.8725673800029</v>
       </c>
       <c r="D9">
-        <v>4.090667951455961</v>
+        <v>4.090667951455988</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.22398369691766</v>
+        <v>40.2239836969174</v>
       </c>
       <c r="G9">
-        <v>31.3000579174301</v>
+        <v>31.30005791742993</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.38109452230128</v>
+        <v>15.38109452230123</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.74513532575084</v>
+        <v>34.74513532575091</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.39737117832237</v>
+        <v>19.39737117832248</v>
       </c>
       <c r="C10">
-        <v>11.71799012080475</v>
+        <v>11.71799012080465</v>
       </c>
       <c r="D10">
-        <v>4.052442704665114</v>
+        <v>4.052442704665017</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.56494895518644</v>
+        <v>43.56494895518646</v>
       </c>
       <c r="G10">
-        <v>33.71979451224076</v>
+        <v>33.71979451224078</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.7013941041158</v>
+        <v>16.70139410411585</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.80542412573031</v>
+        <v>38.80542412573028</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11645062410265</v>
+        <v>20.11645062410264</v>
       </c>
       <c r="C11">
-        <v>12.08616321668326</v>
+        <v>12.0861632166831</v>
       </c>
       <c r="D11">
-        <v>4.036542609010967</v>
+        <v>4.036542609010955</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.07124529006861</v>
+        <v>45.07124529006843</v>
       </c>
       <c r="G11">
-        <v>34.81802220746</v>
+        <v>34.81802220745989</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.27653466846142</v>
+        <v>17.27653466846131</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.66833520053484</v>
+        <v>40.66833520053482</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.38418342605809</v>
+        <v>20.384183426058</v>
       </c>
       <c r="C12">
-        <v>12.22319751892455</v>
+        <v>12.22319751892466</v>
       </c>
       <c r="D12">
-        <v>4.030782457328455</v>
+        <v>4.030782457328423</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.64039010884794</v>
+        <v>45.64039010884771</v>
       </c>
       <c r="G12">
-        <v>35.23405670789946</v>
+        <v>35.23405670789927</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17.49073060143406</v>
+        <v>17.49073060143403</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.38005506905322</v>
+        <v>41.38005506905326</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.32672331714779</v>
+        <v>20.32672331714782</v>
       </c>
       <c r="C13">
-        <v>12.19379149298953</v>
+        <v>12.19379149298952</v>
       </c>
       <c r="D13">
-        <v>4.032010533661828</v>
+        <v>4.032010533661822</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.51785615300938</v>
+        <v>45.51785615300948</v>
       </c>
       <c r="G13">
-        <v>35.14443817945514</v>
+        <v>35.14443817945519</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.2264152111345</v>
+        <v>41.22641521113456</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.13856790759508</v>
+        <v>20.13856790759519</v>
       </c>
       <c r="C14">
-        <v>12.09748514649809</v>
+        <v>12.09748514649794</v>
       </c>
       <c r="D14">
-        <v>4.036063179449986</v>
+        <v>4.036063179449834</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.11808931304378</v>
+        <v>45.11808931304363</v>
       </c>
       <c r="G14">
-        <v>34.85224255769871</v>
+        <v>34.85224255769858</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17.2942284471959</v>
+        <v>17.29422844719596</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.72673508713856</v>
+        <v>40.72673508713851</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.02272659999925</v>
+        <v>20.02272659999917</v>
       </c>
       <c r="C15">
         <v>12.03818296352626</v>
       </c>
       <c r="D15">
-        <v>4.038581103213833</v>
+        <v>4.038581103213793</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.87308257852261</v>
+        <v>44.87308257852258</v>
       </c>
       <c r="G15">
-        <v>34.67330468924244</v>
+        <v>34.67330468924242</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17.20155764128991</v>
+        <v>17.20155764128984</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.42162629190098</v>
+        <v>40.42162629190112</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.34973108225429</v>
+        <v>19.34973108225426</v>
       </c>
       <c r="C16">
         <v>11.69359730707617</v>
       </c>
       <c r="D16">
-        <v>4.053515514675293</v>
+        <v>4.053515514675285</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>43.46628884821327</v>
       </c>
       <c r="G16">
-        <v>33.64801136718465</v>
+        <v>33.64801136718466</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>16.66330050724327</v>
+        <v>16.66330050724322</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.68430924878658</v>
+        <v>38.68430924878655</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.92858878463012</v>
+        <v>18.92858878463022</v>
       </c>
       <c r="C17">
         <v>11.47799075908721</v>
       </c>
       <c r="D17">
-        <v>4.063088459176002</v>
+        <v>4.063088459175942</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.60020122631039</v>
+        <v>42.60020122631046</v>
       </c>
       <c r="G17">
-        <v>33.01868202493419</v>
+        <v>33.01868202493421</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.32662165326645</v>
+        <v>16.32662165326654</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.62503161166282</v>
+        <v>37.62503161166295</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.68327148092611</v>
+        <v>18.68327148092612</v>
       </c>
       <c r="C18">
-        <v>11.35243698820505</v>
+        <v>11.35243698820481</v>
       </c>
       <c r="D18">
-        <v>4.068731314447426</v>
+        <v>4.068731314447387</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.10072080821227</v>
+        <v>42.10072080821231</v>
       </c>
       <c r="G18">
-        <v>32.65642777016033</v>
+        <v>32.65642777016039</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.13057161465228</v>
+        <v>16.13057161465224</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.01695569571171</v>
+        <v>37.01695569571184</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.59967685305997</v>
+        <v>18.59967685305993</v>
       </c>
       <c r="C19">
-        <v>11.30966207479462</v>
+        <v>11.3096620747947</v>
       </c>
       <c r="D19">
-        <v>4.070664128541837</v>
+        <v>4.07066412854201</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.93136068403901</v>
+        <v>41.93136068403903</v>
       </c>
       <c r="G19">
-        <v>32.53371425886827</v>
+        <v>32.53371425886829</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.06377794641533</v>
+        <v>16.06377794641528</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.81117539506454</v>
+        <v>36.81117539506456</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.9737386471281</v>
+        <v>18.97373864712801</v>
       </c>
       <c r="C20">
-        <v>11.50110219650737</v>
+        <v>11.50110219650739</v>
       </c>
       <c r="D20">
-        <v>4.062054946600225</v>
+        <v>4.062054946600161</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.69253131097019</v>
+        <v>42.69253131097015</v>
       </c>
       <c r="G20">
-        <v>33.08570120703563</v>
+        <v>33.0857012070356</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>16.36270972154664</v>
+        <v>16.36270972154657</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19395656749993</v>
+        <v>20.19395656749997</v>
       </c>
       <c r="C21">
-        <v>12.12583771237226</v>
+        <v>12.12583771237213</v>
       </c>
       <c r="D21">
-        <v>4.03486530749105</v>
+        <v>4.034865307491212</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.23553760105781</v>
+        <v>45.23553760105782</v>
       </c>
       <c r="G21">
-        <v>34.93805779003487</v>
+        <v>34.93805779003489</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.33853998674788</v>
+        <v>17.33853998674789</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.87329401274273</v>
+        <v>40.87329401274265</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.96488155001574</v>
+        <v>20.9648815500156</v>
       </c>
       <c r="C22">
-        <v>12.5202017482699</v>
+        <v>12.52020174826996</v>
       </c>
       <c r="D22">
-        <v>4.018646855844373</v>
+        <v>4.018646855844322</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.89077835048906</v>
+        <v>46.89077835048892</v>
       </c>
       <c r="G22">
-        <v>36.1500449385711</v>
+        <v>36.15004493857103</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.95535521973044</v>
+        <v>17.95535521973033</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.96222903220935</v>
+        <v>42.96222903220919</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.55580960753979</v>
+        <v>20.55580960753985</v>
       </c>
       <c r="C23">
-        <v>12.31101392694636</v>
+        <v>12.31101392694655</v>
       </c>
       <c r="D23">
-        <v>4.027142242842143</v>
+        <v>4.027142242841939</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.00764960938827</v>
+        <v>46.00764960938833</v>
       </c>
       <c r="G23">
-        <v>35.50281907348042</v>
+        <v>35.50281907348044</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>17.62804713284655</v>
+        <v>17.62804713284662</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.84197278126313</v>
+        <v>41.84197278126307</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95333636259261</v>
+        <v>18.95333636259249</v>
       </c>
       <c r="C24">
-        <v>11.49065849383524</v>
+        <v>11.49065849383547</v>
       </c>
       <c r="D24">
-        <v>4.062521767298055</v>
+        <v>4.062521767297877</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.65079377108817</v>
+        <v>42.65079377108811</v>
       </c>
       <c r="G24">
-        <v>33.05540325510724</v>
+        <v>33.05540325510719</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.34640206330005</v>
+        <v>16.34640206330002</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.68673010359608</v>
+        <v>37.68673010359593</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10624384834856</v>
+        <v>17.10624384834878</v>
       </c>
       <c r="C25">
-        <v>10.54674284529474</v>
+        <v>10.54674284529472</v>
       </c>
       <c r="D25">
-        <v>4.10580953995833</v>
+        <v>4.10580953995823</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.97854996672592</v>
+        <v>38.97854996672601</v>
       </c>
       <c r="G25">
-        <v>30.40440196580992</v>
+        <v>30.40440196580995</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.87185031130632</v>
+        <v>14.87185031130647</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.24353522568381</v>
+        <v>33.24353522568397</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.63919837323298</v>
+        <v>15.63853081828381</v>
       </c>
       <c r="C2">
-        <v>9.801091873015121</v>
+        <v>9.800137650424782</v>
       </c>
       <c r="D2">
-        <v>4.140826574937456</v>
+        <v>4.135976917119359</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.21702940543514</v>
+        <v>36.18064462163056</v>
       </c>
       <c r="G2">
-        <v>28.43284245310821</v>
+        <v>27.29884599167719</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>28.46928780937742</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.70436148024839</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.70355680161046</v>
       </c>
       <c r="L2">
-        <v>29.90575451086379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.90554592144498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.57583601157115</v>
+        <v>14.57540702375978</v>
       </c>
       <c r="C3">
-        <v>9.264179004007959</v>
+        <v>9.263548873679747</v>
       </c>
       <c r="D3">
-        <v>4.166061408061579</v>
+        <v>4.161619892855988</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.30833349652694</v>
+        <v>34.2744612488268</v>
       </c>
       <c r="G3">
-        <v>27.08351617918242</v>
+        <v>25.73230521582073</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>27.11864533590423</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.86102861300753</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.86050104999985</v>
       </c>
       <c r="L3">
-        <v>27.56867229480509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.56855233313788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88810732242608</v>
+        <v>13.88782360748393</v>
       </c>
       <c r="C4">
-        <v>8.918998366203869</v>
+        <v>8.918574100748069</v>
       </c>
       <c r="D4">
-        <v>4.182179712054287</v>
+        <v>4.17797957515915</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.1190354812904</v>
+        <v>33.0867760018946</v>
       </c>
       <c r="G4">
-        <v>26.24919642786492</v>
+        <v>24.75089995101801</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>26.28355443426391</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.31724903603739</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.31689535857925</v>
       </c>
       <c r="L4">
-        <v>26.08828839503122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.08821465442569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.59899778178113</v>
+        <v>13.59877322086256</v>
       </c>
       <c r="C5">
-        <v>8.774453769112805</v>
+        <v>8.774115410786711</v>
       </c>
       <c r="D5">
-        <v>4.188890105948061</v>
+        <v>4.18478633459413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.6303179628671</v>
+        <v>32.5987336080294</v>
       </c>
       <c r="G5">
-        <v>25.90793677820244</v>
+        <v>24.34623812752193</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>25.94199042776512</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.08910004727531</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.08881846752477</v>
       </c>
       <c r="L5">
-        <v>25.47255777415557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.47250120391367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.5504538058209</v>
+        <v>13.55023907201799</v>
       </c>
       <c r="C6">
-        <v>8.750218682765594</v>
+        <v>8.749894719353598</v>
       </c>
       <c r="D6">
-        <v>4.190012548135428</v>
+        <v>4.185924666350147</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.54893204257957</v>
+        <v>32.51746087805333</v>
       </c>
       <c r="G6">
-        <v>25.85120160794531</v>
+        <v>24.27876601833299</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>25.8852053346981</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.0508197883918</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.0505502639593</v>
       </c>
       <c r="L6">
-        <v>25.36953579783532</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.36948198808431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88424426792894</v>
+        <v>13.88396135060906</v>
       </c>
       <c r="C7">
-        <v>8.917064664931743</v>
+        <v>8.916641549510054</v>
       </c>
       <c r="D7">
-        <v>4.182269653649414</v>
+        <v>4.178070824061252</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.11246046111013</v>
+        <v>33.08021001392502</v>
       </c>
       <c r="G7">
-        <v>26.24459889433894</v>
+        <v>24.74546137628841</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>26.27895275521283</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.31419869911166</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.31384598857986</v>
       </c>
       <c r="L7">
-        <v>26.08003616623888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.07996266348154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27971641594751</v>
+        <v>15.27913152820171</v>
       </c>
       <c r="C8">
-        <v>9.619193199389942</v>
+        <v>9.618349472171072</v>
       </c>
       <c r="D8">
-        <v>4.149388364745001</v>
+        <v>4.144681551872805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.56264893816992</v>
+        <v>35.52711617011586</v>
       </c>
       <c r="G8">
-        <v>27.968897436897</v>
+        <v>26.7628346615041</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>28.00488162728849</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.41895149866781</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.41824177401736</v>
       </c>
       <c r="L8">
-        <v>29.10867211406706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.108496053858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74473883714085</v>
+        <v>17.74353984802994</v>
       </c>
       <c r="C9">
-        <v>10.8725673800029</v>
+        <v>10.8709401090934</v>
       </c>
       <c r="D9">
-        <v>4.090667951455988</v>
+        <v>4.084875470807732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.2239836969174</v>
+        <v>40.18254688248798</v>
       </c>
       <c r="G9">
-        <v>31.30005791742993</v>
+        <v>30.56180165010582</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>31.33950989668278</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.38109452230123</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.37970072033346</v>
       </c>
       <c r="L9">
-        <v>34.74513532575091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.74466863360131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.39737117832248</v>
+        <v>19.39568851548474</v>
       </c>
       <c r="C10">
-        <v>11.71799012080465</v>
+        <v>11.715792946396</v>
       </c>
       <c r="D10">
-        <v>4.052442704665017</v>
+        <v>4.045771683225303</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.56494895518646</v>
+        <v>43.51945098269817</v>
       </c>
       <c r="G10">
-        <v>33.71979451224078</v>
+        <v>33.26393824439183</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>33.76193489718917</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.70139410411585</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.69948746969496</v>
       </c>
       <c r="L10">
-        <v>38.80542412573028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.80463846698603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11645062410264</v>
+        <v>20.11453579677787</v>
       </c>
       <c r="C11">
-        <v>12.0861632166831</v>
+        <v>12.0837032649474</v>
       </c>
       <c r="D11">
-        <v>4.036542609010955</v>
+        <v>4.029447124185903</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.07124529006843</v>
+        <v>45.0239438496127</v>
       </c>
       <c r="G11">
-        <v>34.81802220745989</v>
+        <v>34.4784413382888</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>34.86141315284028</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>17.27653466846131</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.27438750102808</v>
       </c>
       <c r="L11">
-        <v>40.66833520053482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.66736191429545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.384183426058</v>
+        <v>20.38217842194903</v>
       </c>
       <c r="C12">
-        <v>12.22319751892466</v>
+        <v>12.22063709867157</v>
       </c>
       <c r="D12">
-        <v>4.030782457328423</v>
+        <v>4.023521916865939</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.64039010884771</v>
+        <v>45.59241020518082</v>
       </c>
       <c r="G12">
-        <v>35.23405670789927</v>
+        <v>34.93686235783792</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>35.2779250927131</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>17.49073060143403</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.48849081808423</v>
       </c>
       <c r="L12">
-        <v>41.38005506905326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.37900187131694</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.32672331714782</v>
+        <v>20.32473784406504</v>
       </c>
       <c r="C13">
-        <v>12.19379149298952</v>
+        <v>12.19125276101079</v>
       </c>
       <c r="D13">
-        <v>4.032010533661822</v>
+        <v>4.024785746878779</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.51785615300948</v>
+        <v>45.47002220549122</v>
       </c>
       <c r="G13">
-        <v>35.14443817945519</v>
+        <v>34.83818638151479</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.18820356651092</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>17.44475871864762</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.44253895855381</v>
       </c>
       <c r="L13">
-        <v>41.22641521113456</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.22537967701872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.13856790759519</v>
+        <v>20.13664570999383</v>
       </c>
       <c r="C14">
-        <v>12.09748514649794</v>
+        <v>12.09501695121682</v>
       </c>
       <c r="D14">
-        <v>4.036063179449834</v>
+        <v>4.028954206907354</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.11808931304363</v>
+        <v>45.0707319780839</v>
       </c>
       <c r="G14">
-        <v>34.85224255769858</v>
+        <v>34.51618113545423</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34.89567270456528</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>17.29422844719596</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.29207369397312</v>
       </c>
       <c r="L14">
-        <v>40.72673508713851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.72575542486624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.02272659999917</v>
+        <v>20.02084284902152</v>
       </c>
       <c r="C15">
-        <v>12.03818296352626</v>
+        <v>12.03575783445698</v>
       </c>
       <c r="D15">
-        <v>4.038581103213793</v>
+        <v>4.031542482371311</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.87308257852258</v>
+        <v>44.82601770006087</v>
       </c>
       <c r="G15">
-        <v>34.67330468924242</v>
+        <v>34.31877332682227</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>34.71652999679555</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>17.20155764128984</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.19944249135746</v>
       </c>
       <c r="L15">
-        <v>40.42162629190112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.42067959385322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.34973108225426</v>
+        <v>19.34806330571655</v>
       </c>
       <c r="C16">
-        <v>11.69359730707617</v>
+        <v>11.69141719739249</v>
       </c>
       <c r="D16">
-        <v>4.053515514675285</v>
+        <v>4.046871672931389</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.46628884821327</v>
+        <v>43.42090947541576</v>
       </c>
       <c r="G16">
-        <v>33.64801136718466</v>
+        <v>33.18431988321613</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.69007056956177</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>16.66330050724322</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.66140940633086</v>
       </c>
       <c r="L16">
-        <v>38.68430924878655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.68353479044499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.92858878463022</v>
+        <v>18.92705005429609</v>
       </c>
       <c r="C17">
-        <v>11.47799075908721</v>
+        <v>11.47595975304339</v>
       </c>
       <c r="D17">
-        <v>4.063088459175942</v>
+        <v>4.056679959549715</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.60020122631046</v>
+        <v>42.55586596466992</v>
       </c>
       <c r="G17">
-        <v>33.01868202493421</v>
+        <v>32.48497503737067</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.06003281996452</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.32662165326654</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.32486581873836</v>
       </c>
       <c r="L17">
-        <v>37.62503161166295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.62435034837149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.68327148092612</v>
+        <v>18.68180586771744</v>
       </c>
       <c r="C18">
-        <v>11.35243698820481</v>
+        <v>11.35049144104611</v>
       </c>
       <c r="D18">
-        <v>4.068731314447387</v>
+        <v>4.06245589494212</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.10072080821231</v>
+        <v>42.05699036785389</v>
       </c>
       <c r="G18">
-        <v>32.65642777016039</v>
+        <v>32.08129511892168</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.69737370201718</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.13057161465224</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.12889293323926</v>
       </c>
       <c r="L18">
-        <v>37.01695569571184</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.01632425217782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.59967685305993</v>
+        <v>18.59823582016217</v>
       </c>
       <c r="C19">
-        <v>11.3096620747947</v>
+        <v>11.30774542363768</v>
       </c>
       <c r="D19">
-        <v>4.07066412854201</v>
+        <v>4.064433396093377</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.93136068403903</v>
+        <v>41.88783580813753</v>
       </c>
       <c r="G19">
-        <v>32.53371425886829</v>
+        <v>31.94435420782263</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.57452356148087</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.06377794641528</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.06212529005077</v>
       </c>
       <c r="L19">
-        <v>36.81117539506456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.81056023375848</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.97373864712801</v>
+        <v>18.97218629759329</v>
       </c>
       <c r="C20">
-        <v>11.50110219650739</v>
+        <v>11.49905535244009</v>
       </c>
       <c r="D20">
-        <v>4.062054946600161</v>
+        <v>4.055621635574419</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.69253131097015</v>
+        <v>42.64808447104919</v>
       </c>
       <c r="G20">
-        <v>33.0857012070356</v>
+        <v>32.55956624529585</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.12712714585115</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>16.36270972154657</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.36093955810743</v>
       </c>
       <c r="L20">
-        <v>37.73764535017921</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.73695457355159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19395656749997</v>
+        <v>20.19201585032247</v>
       </c>
       <c r="C21">
-        <v>12.12583771237213</v>
+        <v>12.12334882873085</v>
       </c>
       <c r="D21">
-        <v>4.034865307491212</v>
+        <v>4.027722441602913</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.23553760105782</v>
+        <v>45.18804016974052</v>
       </c>
       <c r="G21">
-        <v>34.93805779003489</v>
+        <v>34.6107958679699</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>34.98158629979181</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>17.33853998674789</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.33636618528786</v>
       </c>
       <c r="L21">
-        <v>40.87329401274265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.87229820891989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.9648815500156</v>
+        <v>20.96267351638601</v>
       </c>
       <c r="C22">
-        <v>12.52020174826996</v>
+        <v>12.51741811239351</v>
       </c>
       <c r="D22">
-        <v>4.018646855844322</v>
+        <v>4.01101458456466</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.89077835048892</v>
+        <v>46.84131191033713</v>
       </c>
       <c r="G22">
-        <v>36.15004493857103</v>
+        <v>35.94323528045577</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>36.19497027260085</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>17.95535521973033</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.95290840306715</v>
       </c>
       <c r="L22">
-        <v>42.96222903220919</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42.96097974605916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.55580960753985</v>
+        <v>20.55374567814251</v>
       </c>
       <c r="C23">
-        <v>12.31101392694655</v>
+        <v>12.3083883074514</v>
       </c>
       <c r="D23">
-        <v>4.027142242841939</v>
+        <v>4.019773822118249</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.00764960938833</v>
+        <v>45.95923258056073</v>
       </c>
       <c r="G23">
-        <v>35.50281907348044</v>
+        <v>35.23255304140669</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>35.54699681383578</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>17.62804713284662</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>17.62574705628667</v>
       </c>
       <c r="L23">
-        <v>41.84197278126307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.84086505913426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95333636259249</v>
+        <v>18.95179017360377</v>
       </c>
       <c r="C24">
-        <v>11.49065849383547</v>
+        <v>11.48861881092382</v>
       </c>
       <c r="D24">
-        <v>4.062521767297877</v>
+        <v>4.056099680369882</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.65079377108811</v>
+        <v>42.60639736141068</v>
       </c>
       <c r="G24">
-        <v>33.05540325510719</v>
+        <v>32.52584864155808</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.09679521390343</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.34640206330002</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.34463837983609</v>
       </c>
       <c r="L24">
-        <v>37.68673010359593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.68604363947157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10624384834878</v>
+        <v>17.10521517392926</v>
       </c>
       <c r="C25">
-        <v>10.54674284529472</v>
+        <v>10.5453250426713</v>
       </c>
       <c r="D25">
-        <v>4.10580953995823</v>
+        <v>4.100322831750812</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.97854996672601</v>
+        <v>38.93865743166356</v>
       </c>
       <c r="G25">
-        <v>30.40440196580995</v>
+        <v>29.55069369035082</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>30.4428897116738</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>14.87185031130647</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.87064182457328</v>
       </c>
       <c r="L25">
-        <v>33.24353522568397</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.24316089142852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.63853081828381</v>
+        <v>20.86959526937553</v>
       </c>
       <c r="C2">
-        <v>9.800137650424782</v>
+        <v>14.31548405163845</v>
       </c>
       <c r="D2">
-        <v>4.135976917119359</v>
+        <v>3.61296640451595</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.18064462163056</v>
+        <v>39.26781831587876</v>
       </c>
       <c r="G2">
-        <v>27.29884599167719</v>
+        <v>2.09191093944416</v>
       </c>
       <c r="H2">
-        <v>28.46928780937742</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.57373175765735</v>
       </c>
       <c r="K2">
-        <v>13.70355680161046</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.90554592144498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.15268262947168</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.82443287235378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.57540702375978</v>
+        <v>19.38402777081502</v>
       </c>
       <c r="C3">
-        <v>9.263548873679747</v>
+        <v>13.31160157432054</v>
       </c>
       <c r="D3">
-        <v>4.161619892855988</v>
+        <v>3.579169117455675</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>34.2744612488268</v>
+        <v>37.78751973668255</v>
       </c>
       <c r="G3">
-        <v>25.73230521582073</v>
+        <v>2.102797736273576</v>
       </c>
       <c r="H3">
-        <v>27.11864533590423</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.566472793254609</v>
       </c>
       <c r="K3">
-        <v>12.86050104999985</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.56855233313788</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.39591729487641</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.82239547293351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88782360748393</v>
+        <v>18.42495212005073</v>
       </c>
       <c r="C4">
-        <v>8.918574100748069</v>
+        <v>12.66321724497288</v>
       </c>
       <c r="D4">
-        <v>4.17797957515915</v>
+        <v>3.559295123246559</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33.0867760018946</v>
+        <v>36.89163218938178</v>
       </c>
       <c r="G4">
-        <v>24.75089995101801</v>
+        <v>2.109627244585267</v>
       </c>
       <c r="H4">
-        <v>26.28355443426391</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.56541457458054</v>
       </c>
       <c r="K4">
-        <v>12.31689535857925</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.08821465442569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.92269058272932</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.22031986018373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.59877322086256</v>
+        <v>18.0221571267222</v>
       </c>
       <c r="C5">
-        <v>8.774115410786711</v>
+        <v>12.39082178461987</v>
       </c>
       <c r="D5">
-        <v>4.18478633459413</v>
+        <v>3.55141981355737</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.5987336080294</v>
+        <v>36.53006675734387</v>
       </c>
       <c r="G5">
-        <v>24.34623812752193</v>
+        <v>2.112449506383759</v>
       </c>
       <c r="H5">
-        <v>25.94199042776512</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.565805421368228</v>
       </c>
       <c r="K5">
-        <v>12.08881846752477</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.47250120391367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.72790084936955</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.97839449105986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.55023907201799</v>
+        <v>17.95454626216229</v>
       </c>
       <c r="C6">
-        <v>8.749894719353598</v>
+        <v>12.34509346843466</v>
       </c>
       <c r="D6">
-        <v>4.185924666350147</v>
+        <v>3.550125714206873</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.51746087805333</v>
+        <v>36.47024923477483</v>
       </c>
       <c r="G6">
-        <v>24.27876601833299</v>
+        <v>2.11292058298646</v>
       </c>
       <c r="H6">
-        <v>25.8852053346981</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.565919048082352</v>
       </c>
       <c r="K6">
-        <v>12.0505502639593</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.36948198808431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.69544562443185</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.93843342924853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88396135060906</v>
+        <v>18.41956853194008</v>
       </c>
       <c r="C7">
-        <v>8.916641549510054</v>
+        <v>12.65957688278321</v>
       </c>
       <c r="D7">
-        <v>4.178070824061252</v>
+        <v>3.559188005055204</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>33.08021001392502</v>
+        <v>36.88674140798584</v>
       </c>
       <c r="G7">
-        <v>24.74546137628841</v>
+        <v>2.109665144498132</v>
       </c>
       <c r="H7">
-        <v>26.27895275521283</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.565416559075356</v>
       </c>
       <c r="K7">
-        <v>12.31384598857986</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.07996266348154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.92007115002647</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.21704314099182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27913152820171</v>
+        <v>20.3670095205917</v>
       </c>
       <c r="C8">
-        <v>9.618349472171072</v>
+        <v>13.97590674213934</v>
       </c>
       <c r="D8">
-        <v>4.144681551872805</v>
+        <v>3.601132448406976</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.52711617011586</v>
+        <v>38.75484009069483</v>
       </c>
       <c r="G8">
-        <v>26.7628346615041</v>
+        <v>2.095636330910354</v>
       </c>
       <c r="H8">
-        <v>28.00488162728849</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.570503353487744</v>
       </c>
       <c r="K8">
-        <v>13.41824177401736</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.108496053858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.89363972614621</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.47625498575099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.74353984802994</v>
+        <v>23.82171758030415</v>
       </c>
       <c r="C9">
-        <v>10.8709401090934</v>
+        <v>16.30957106563735</v>
       </c>
       <c r="D9">
-        <v>4.084875470807732</v>
+        <v>3.69026470107324</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.18254688248798</v>
+        <v>42.51364876714705</v>
       </c>
       <c r="G9">
-        <v>30.56180165010582</v>
+        <v>2.069140163059927</v>
       </c>
       <c r="H9">
-        <v>31.33950989668278</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.608999432689355</v>
       </c>
       <c r="K9">
-        <v>15.37970072033346</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.74466863360131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.87732240652544</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.04676495128752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.39568851548474</v>
+        <v>26.15052183247663</v>
       </c>
       <c r="C10">
-        <v>11.715792946396</v>
+        <v>17.8826059918378</v>
       </c>
       <c r="D10">
-        <v>4.045771683225303</v>
+        <v>3.759909659901998</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.51945098269817</v>
+        <v>45.32819345254524</v>
       </c>
       <c r="G10">
-        <v>33.26393824439183</v>
+        <v>2.050079652307423</v>
       </c>
       <c r="H10">
-        <v>33.76193489718917</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.656975629862709</v>
       </c>
       <c r="K10">
-        <v>16.69948746969496</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.80463846698603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.50913548328432</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>32.99569008407044</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.11453579677787</v>
+        <v>27.1677022622275</v>
       </c>
       <c r="C11">
-        <v>12.0837032649474</v>
+        <v>18.56985786576627</v>
       </c>
       <c r="D11">
-        <v>4.029447124185903</v>
+        <v>3.792516937093597</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.0239438496127</v>
+        <v>46.62075378962388</v>
       </c>
       <c r="G11">
-        <v>34.4784413382888</v>
+        <v>2.041442153092956</v>
       </c>
       <c r="H11">
-        <v>34.86141315284028</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.683636354481114</v>
       </c>
       <c r="K11">
-        <v>17.27438750102808</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.66736191429545</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.2218114484235</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>33.89626627579769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.38217842194903</v>
+        <v>27.54711581093536</v>
       </c>
       <c r="C12">
-        <v>12.22063709867157</v>
+        <v>18.82625064915632</v>
       </c>
       <c r="D12">
-        <v>4.023521916865939</v>
+        <v>3.80500157084843</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.59241020518082</v>
+        <v>47.11215641517189</v>
       </c>
       <c r="G12">
-        <v>34.93686235783792</v>
+        <v>2.038170883491611</v>
       </c>
       <c r="H12">
-        <v>35.2779250927131</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.694478991161123</v>
       </c>
       <c r="K12">
-        <v>17.48849081808423</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.37900187131694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.48763752518507</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>34.23946441147132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.32473784406504</v>
+        <v>27.46565381945696</v>
       </c>
       <c r="C13">
-        <v>12.19125276101079</v>
+        <v>18.77119953361284</v>
       </c>
       <c r="D13">
-        <v>4.024785746878779</v>
+        <v>3.802306602839781</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.47002220549122</v>
+        <v>47.00623368498645</v>
       </c>
       <c r="G13">
-        <v>34.83818638151479</v>
+        <v>2.038875519959461</v>
       </c>
       <c r="H13">
-        <v>35.18820356651092</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.692109747923309</v>
       </c>
       <c r="K13">
-        <v>17.44253895855381</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.22537967701872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.43056352310812</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>34.16545068345534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.13664570999383</v>
+        <v>27.19903065551897</v>
       </c>
       <c r="C14">
-        <v>12.09501695121682</v>
+        <v>18.59102735600212</v>
       </c>
       <c r="D14">
-        <v>4.028954206907354</v>
+        <v>3.793541279808128</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.0707319780839</v>
+        <v>46.66114146715454</v>
       </c>
       <c r="G14">
-        <v>34.51618113545423</v>
+        <v>2.041173064898155</v>
       </c>
       <c r="H14">
-        <v>34.89567270456528</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.684513105191487</v>
       </c>
       <c r="K14">
-        <v>17.29207369397312</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.72575542486624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.24376095085543</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>33.92445672228893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.02084284902152</v>
+        <v>27.03497424069312</v>
       </c>
       <c r="C15">
-        <v>12.03575783445698</v>
+        <v>18.48017166870254</v>
       </c>
       <c r="D15">
-        <v>4.031542482371311</v>
+        <v>3.788190258406138</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.82601770006087</v>
+        <v>46.45002235759282</v>
       </c>
       <c r="G15">
-        <v>34.31877332682227</v>
+        <v>2.04258015399378</v>
       </c>
       <c r="H15">
-        <v>34.71652999679555</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.679958809186084</v>
       </c>
       <c r="K15">
-        <v>17.19944249135746</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.42067959385322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.12881847209705</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>33.777129541155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.34806330571655</v>
+        <v>26.08322213321756</v>
       </c>
       <c r="C16">
-        <v>11.69141719739249</v>
+        <v>17.83714055244946</v>
       </c>
       <c r="D16">
-        <v>4.046871672931389</v>
+        <v>3.757797600797705</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.42090947541576</v>
+        <v>45.24398020607349</v>
       </c>
       <c r="G16">
-        <v>33.18431988321613</v>
+        <v>2.050644371665888</v>
       </c>
       <c r="H16">
-        <v>33.69007056956177</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.655334881981689</v>
       </c>
       <c r="K16">
-        <v>16.66140940633086</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.68353479044499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.46198165994373</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>32.93712854491825</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.92705005429609</v>
+        <v>25.48874477007631</v>
       </c>
       <c r="C17">
-        <v>11.47595975304339</v>
+        <v>17.43555390864399</v>
       </c>
       <c r="D17">
-        <v>4.056679959549715</v>
+        <v>3.739391786819339</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.55586596466992</v>
+        <v>44.50733288810928</v>
       </c>
       <c r="G17">
-        <v>32.48497503737067</v>
+        <v>2.055596519661617</v>
       </c>
       <c r="H17">
-        <v>33.06003281996452</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.641502561035234</v>
       </c>
       <c r="K17">
-        <v>16.32486581873836</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.62435034837149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.04545112279867</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.42548696350955</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.68180586771744</v>
+        <v>25.14282481685841</v>
       </c>
       <c r="C18">
-        <v>11.35049144104611</v>
+        <v>17.20189084789211</v>
       </c>
       <c r="D18">
-        <v>4.06245589494212</v>
+        <v>3.728891999997867</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.05699036785389</v>
+        <v>44.0847643953328</v>
       </c>
       <c r="G18">
-        <v>32.08129511892168</v>
+        <v>2.058448341144713</v>
       </c>
       <c r="H18">
-        <v>32.69737370201718</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.633998427608445</v>
       </c>
       <c r="K18">
-        <v>16.12889293323926</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.01632425217782</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.80306941759878</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.13250808190021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.59823582016217</v>
+        <v>25.02500806536703</v>
       </c>
       <c r="C19">
-        <v>11.30774542363768</v>
+        <v>17.12230981297194</v>
       </c>
       <c r="D19">
-        <v>4.064433396093377</v>
+        <v>3.725351769816082</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.88783580813753</v>
+        <v>43.94188064891276</v>
       </c>
       <c r="G19">
-        <v>31.94435420782263</v>
+        <v>2.059414663899638</v>
       </c>
       <c r="H19">
-        <v>32.57452356148087</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.631533777475338</v>
       </c>
       <c r="K19">
-        <v>16.06212529005077</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.81056023375848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.72051535387659</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.03353094720013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.97218629759329</v>
+        <v>25.55243903992182</v>
       </c>
       <c r="C20">
-        <v>11.49905535244009</v>
+        <v>17.47857946454307</v>
       </c>
       <c r="D20">
-        <v>4.055621635574419</v>
+        <v>3.741342117820862</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.64808447104919</v>
+        <v>44.58563219252949</v>
       </c>
       <c r="G20">
-        <v>32.55956624529585</v>
+        <v>2.055069030784542</v>
       </c>
       <c r="H20">
-        <v>33.12712714585115</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.642927914005329</v>
       </c>
       <c r="K20">
-        <v>16.36093955810743</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.73695457355159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.09008027673785</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.47981626908901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.19201585032247</v>
+        <v>27.27749839488838</v>
       </c>
       <c r="C21">
-        <v>12.12334882873085</v>
+        <v>18.64405102569259</v>
       </c>
       <c r="D21">
-        <v>4.027722441602913</v>
+        <v>3.796112107817225</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.18804016974052</v>
+        <v>46.7624487708045</v>
       </c>
       <c r="G21">
-        <v>34.6107958679699</v>
+        <v>2.040498277157916</v>
       </c>
       <c r="H21">
-        <v>34.98158629979181</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.686723720446606</v>
       </c>
       <c r="K21">
-        <v>17.33636618528786</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.87229820891989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.29873745073927</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>33.99518195324981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.96267351638601</v>
+        <v>28.37145491248979</v>
       </c>
       <c r="C22">
-        <v>12.51741811239351</v>
+        <v>19.38340837502431</v>
       </c>
       <c r="D22">
-        <v>4.01101458456466</v>
+        <v>3.832709390161301</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.84131191033713</v>
+        <v>48.19659396232131</v>
       </c>
       <c r="G22">
-        <v>35.94323528045577</v>
+        <v>2.030969951877628</v>
       </c>
       <c r="H22">
-        <v>36.19497027260085</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.719727459134216</v>
       </c>
       <c r="K22">
-        <v>17.95290840306715</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.96097974605916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.06518304549163</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>34.99834091053029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.55374567814251</v>
+        <v>27.79054376173085</v>
       </c>
       <c r="C23">
-        <v>12.3083883074514</v>
+        <v>18.9907644871432</v>
       </c>
       <c r="D23">
-        <v>4.019773822118249</v>
+        <v>3.813101435046182</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.95923258056073</v>
+        <v>47.43002211014311</v>
       </c>
       <c r="G23">
-        <v>35.23255304140669</v>
+        <v>2.036057814724386</v>
       </c>
       <c r="H23">
-        <v>35.54699681383578</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.701693549758053</v>
       </c>
       <c r="K23">
-        <v>17.62574705628667</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.84086505913426</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19.65818780668808</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>34.46169286056809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95179017360377</v>
+        <v>25.52365579955649</v>
       </c>
       <c r="C24">
-        <v>11.48861881092382</v>
+        <v>17.45913630328411</v>
       </c>
       <c r="D24">
-        <v>4.056099680369882</v>
+        <v>3.740460118140016</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.60639736141068</v>
+        <v>44.55023016172438</v>
       </c>
       <c r="G24">
-        <v>32.52584864155808</v>
+        <v>2.055307493277787</v>
       </c>
       <c r="H24">
-        <v>33.09679521390343</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.642282119540297</v>
       </c>
       <c r="K24">
-        <v>16.34463837983609</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.68604363947157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.06991252464018</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.45525035432411</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.10521517392926</v>
+        <v>22.92489126280687</v>
       </c>
       <c r="C25">
-        <v>10.5453250426713</v>
+        <v>15.70384094257103</v>
       </c>
       <c r="D25">
-        <v>4.100322831750812</v>
+        <v>3.665423280605319</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.93865743166356</v>
+        <v>41.48739711287895</v>
       </c>
       <c r="G25">
-        <v>29.55069369035082</v>
+        <v>2.076219960576259</v>
       </c>
       <c r="H25">
-        <v>30.4428897116738</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.595303837092829</v>
       </c>
       <c r="K25">
-        <v>14.87064182457328</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.24316089142852</v>
+        <v>16.24880755839052</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.34085089001506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.86959526937553</v>
+        <v>12.31363318757496</v>
       </c>
       <c r="C2">
-        <v>14.31548405163845</v>
+        <v>7.191253322021089</v>
       </c>
       <c r="D2">
-        <v>3.61296640451595</v>
+        <v>2.512286818457885</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.26781831587876</v>
+        <v>47.53376017118248</v>
       </c>
       <c r="G2">
-        <v>2.09191093944416</v>
+        <v>2.187200357772269</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>33.800494587504</v>
       </c>
       <c r="J2">
-        <v>6.57373175765735</v>
+        <v>6.573683591141996</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.97448121528911</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.805027687266323</v>
       </c>
       <c r="M2">
-        <v>15.15268262947168</v>
+        <v>10.16213523779209</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.82443287235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.38402777081502</v>
+        <v>11.72608887163347</v>
       </c>
       <c r="C3">
-        <v>13.31160157432054</v>
+        <v>6.6766864883488</v>
       </c>
       <c r="D3">
-        <v>3.579169117455675</v>
+        <v>2.50843383211001</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.78751973668255</v>
+        <v>46.45172796106863</v>
       </c>
       <c r="G3">
-        <v>2.102797736273576</v>
+        <v>2.195810851175246</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>33.21225172690004</v>
       </c>
       <c r="J3">
-        <v>6.566472793254609</v>
+        <v>6.594043606951285</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.50550858992456</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.77797400264389</v>
       </c>
       <c r="M3">
-        <v>14.39591729487641</v>
+        <v>10.00830606477558</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.82239547293351</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.42495212005073</v>
+        <v>11.36065213723322</v>
       </c>
       <c r="C4">
-        <v>12.66321724497288</v>
+        <v>6.344480302530017</v>
       </c>
       <c r="D4">
-        <v>3.559295123246559</v>
+        <v>2.505338668893731</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.89163218938178</v>
+        <v>45.79660513508517</v>
       </c>
       <c r="G4">
-        <v>2.109627244585267</v>
+        <v>2.201241660388457</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>32.85900995194868</v>
       </c>
       <c r="J4">
-        <v>6.56541457458054</v>
+        <v>6.607353906542743</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.21602044081584</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.764438171925448</v>
       </c>
       <c r="M4">
-        <v>13.92269058272932</v>
+        <v>9.919293008166354</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.22031986018373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0221571267222</v>
+        <v>11.21077770818017</v>
       </c>
       <c r="C5">
-        <v>12.39082178461987</v>
+        <v>6.204962447210282</v>
       </c>
       <c r="D5">
-        <v>3.55141981355737</v>
+        <v>2.503896233207183</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.53006675734387</v>
+        <v>45.53210942089254</v>
       </c>
       <c r="G5">
-        <v>2.112449506383759</v>
+        <v>2.203492415802689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>32.71708331693541</v>
       </c>
       <c r="J5">
-        <v>6.565805421368228</v>
+        <v>6.61298143890172</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10.09783779044197</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.759682205520365</v>
       </c>
       <c r="M5">
-        <v>13.72790084936955</v>
+        <v>9.884397103464224</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.97839449105986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.95454626216229</v>
+        <v>11.18584055760594</v>
       </c>
       <c r="C6">
-        <v>12.34509346843466</v>
+        <v>6.181544022938721</v>
       </c>
       <c r="D6">
-        <v>3.550125714206873</v>
+        <v>2.503645841711869</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.47024923477483</v>
+        <v>45.48834378950567</v>
       </c>
       <c r="G6">
-        <v>2.11292058298646</v>
+        <v>2.203868467572962</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>32.69363937955171</v>
       </c>
       <c r="J6">
-        <v>6.565919048082352</v>
+        <v>6.613928176542559</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10.07820618964199</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.758937988849064</v>
       </c>
       <c r="M6">
-        <v>13.69544562443185</v>
+        <v>9.878686115615995</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.93843342924853</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.41956853194008</v>
+        <v>11.35863443187519</v>
       </c>
       <c r="C7">
-        <v>12.65957688278321</v>
+        <v>6.342615550540994</v>
       </c>
       <c r="D7">
-        <v>3.559188005055204</v>
+        <v>2.505319946198227</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.88674140798584</v>
+        <v>45.793027846633</v>
       </c>
       <c r="G7">
-        <v>2.109665144498132</v>
+        <v>2.201271860518316</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>32.85708765836694</v>
       </c>
       <c r="J7">
-        <v>6.565416559075356</v>
+        <v>6.607428977507003</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.21442721056272</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.764370971853344</v>
       </c>
       <c r="M7">
-        <v>13.92007115002647</v>
+        <v>9.918816800293571</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.21704314099182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.3670095205917</v>
+        <v>12.11214204001207</v>
       </c>
       <c r="C8">
-        <v>13.97590674213934</v>
+        <v>7.017172938253062</v>
       </c>
       <c r="D8">
-        <v>3.601132448406976</v>
+        <v>2.511111126639952</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.75484009069483</v>
+        <v>47.15884133238251</v>
       </c>
       <c r="G8">
-        <v>2.095636330910354</v>
+        <v>2.190140292503276</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>33.5960349454914</v>
       </c>
       <c r="J8">
-        <v>6.570503353487744</v>
+        <v>6.580535778613406</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.81319528442806</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.795053366000814</v>
       </c>
       <c r="M8">
-        <v>14.89363972614621</v>
+        <v>10.10797280248838</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.47625498575099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.82171758030415</v>
+        <v>13.54464350661317</v>
       </c>
       <c r="C9">
-        <v>16.30957106563735</v>
+        <v>8.213490963710683</v>
       </c>
       <c r="D9">
-        <v>3.69026470107324</v>
+        <v>2.516567606685137</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.51364876714705</v>
+        <v>49.90472631640978</v>
       </c>
       <c r="G9">
-        <v>2.069140163059927</v>
+        <v>2.169382227978194</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>35.10718477732469</v>
       </c>
       <c r="J9">
-        <v>6.608999432689355</v>
+        <v>6.534219467613121</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.96876733164246</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.880215012883974</v>
       </c>
       <c r="M9">
-        <v>16.87732240652544</v>
+        <v>10.52155132121444</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.04676495128752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.15052183247663</v>
+        <v>14.56134056909552</v>
       </c>
       <c r="C10">
-        <v>17.8826059918378</v>
+        <v>9.019092314705473</v>
       </c>
       <c r="D10">
-        <v>3.759909659901998</v>
+        <v>2.51680917661587</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>45.32819345254524</v>
+        <v>51.95673229212468</v>
       </c>
       <c r="G10">
-        <v>2.050079652307423</v>
+        <v>2.154676765174478</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>36.25449824708717</v>
       </c>
       <c r="J10">
-        <v>6.656975629862709</v>
+        <v>6.504108376158942</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.79956758278289</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.958842918334806</v>
       </c>
       <c r="M10">
-        <v>18.50913548328432</v>
+        <v>10.85071761675373</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.99569008407044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.1677022622275</v>
+        <v>15.0150077198138</v>
       </c>
       <c r="C11">
-        <v>18.56985786576627</v>
+        <v>9.370566839657444</v>
       </c>
       <c r="D11">
-        <v>3.792516937093597</v>
+        <v>2.516059579227338</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>46.62075378962388</v>
+        <v>52.89682162870402</v>
       </c>
       <c r="G11">
-        <v>2.041442153092956</v>
+        <v>2.148079040702076</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>36.78450336346123</v>
       </c>
       <c r="J11">
-        <v>6.683636354481114</v>
+        <v>6.491262220742135</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.281071301133</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.99828168546026</v>
       </c>
       <c r="M11">
-        <v>19.2218114484235</v>
+        <v>11.00583183234558</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.89626627579769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.54711581093536</v>
+        <v>15.18547806864333</v>
       </c>
       <c r="C12">
-        <v>18.82625064915632</v>
+        <v>9.50158639031749</v>
       </c>
       <c r="D12">
-        <v>3.80500157084843</v>
+        <v>2.515648396927048</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>47.11215641517189</v>
+        <v>53.25371802620609</v>
       </c>
       <c r="G12">
-        <v>2.038170883491611</v>
+        <v>2.145591459476451</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>36.98637996092823</v>
       </c>
       <c r="J12">
-        <v>6.694478991161123</v>
+        <v>6.486520392478687</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.46516788416598</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.013759358037998</v>
       </c>
       <c r="M12">
-        <v>19.48763752518507</v>
+        <v>11.06533427206261</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.23946441147132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.46565381945696</v>
+        <v>15.14882364149477</v>
       </c>
       <c r="C13">
-        <v>18.77119953361284</v>
+        <v>9.473459971767324</v>
       </c>
       <c r="D13">
-        <v>3.802306602839781</v>
+        <v>2.515742677576172</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.00623368498645</v>
+        <v>53.17681413904648</v>
       </c>
       <c r="G13">
-        <v>2.038875519959461</v>
+        <v>2.146126763049075</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>36.94284959531057</v>
       </c>
       <c r="J13">
-        <v>6.692109747923309</v>
+        <v>6.487536166370614</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.42565518684612</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.01040155914126</v>
       </c>
       <c r="M13">
-        <v>19.43056352310812</v>
+        <v>11.05248547459473</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>34.16545068345534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.19903065551897</v>
+        <v>15.02905914846231</v>
       </c>
       <c r="C14">
-        <v>18.59102735600212</v>
+        <v>9.381387022359707</v>
       </c>
       <c r="D14">
-        <v>3.793541279808128</v>
+        <v>2.516028325158446</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>46.66114146715454</v>
+        <v>52.92616572233035</v>
       </c>
       <c r="G14">
-        <v>2.041173064898155</v>
+        <v>2.147874183193657</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>36.80108819490689</v>
       </c>
       <c r="J14">
-        <v>6.684513105191487</v>
+        <v>6.490869646116093</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.29627837976913</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.99954406861493</v>
       </c>
       <c r="M14">
-        <v>19.24376095085543</v>
+        <v>11.01071185799215</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.92445672228893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.03497424069312</v>
+        <v>14.95552647524808</v>
       </c>
       <c r="C15">
-        <v>18.48017166870254</v>
+        <v>9.324721800295894</v>
       </c>
       <c r="D15">
-        <v>3.788190258406138</v>
+        <v>2.516186595605676</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>46.45002235759282</v>
+        <v>52.77275336106605</v>
       </c>
       <c r="G15">
-        <v>2.04258015399378</v>
+        <v>2.148945864987622</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>36.71440891302492</v>
       </c>
       <c r="J15">
-        <v>6.679958809186084</v>
+        <v>6.492927491443084</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.21663197501924</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.992964732585571</v>
       </c>
       <c r="M15">
-        <v>19.12881847209705</v>
+        <v>10.98522361660867</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.777129541155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.08322213321756</v>
+        <v>14.53150939284653</v>
       </c>
       <c r="C16">
-        <v>17.83714055244946</v>
+        <v>8.995827558159251</v>
       </c>
       <c r="D16">
-        <v>3.757797600797705</v>
+        <v>2.516840556513285</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.24398020607349</v>
+        <v>51.89542369216684</v>
       </c>
       <c r="G16">
-        <v>2.050644371665888</v>
+        <v>2.155109592482744</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>36.22002460072649</v>
       </c>
       <c r="J16">
-        <v>6.655334881981689</v>
+        <v>6.504965060483076</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.77508496130145</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.956340647876385</v>
       </c>
       <c r="M16">
-        <v>18.46198165994373</v>
+        <v>10.84068785427135</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.93712854491825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48874477007631</v>
+        <v>14.26907915896629</v>
       </c>
       <c r="C17">
-        <v>17.43555390864399</v>
+        <v>8.790275467631464</v>
       </c>
       <c r="D17">
-        <v>3.739391786819339</v>
+        <v>2.517019033640233</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.50733288810928</v>
+        <v>51.35886234746835</v>
       </c>
       <c r="G17">
-        <v>2.055596519661617</v>
+        <v>2.15891274690258</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>35.91881113379431</v>
       </c>
       <c r="J17">
-        <v>6.641502561035234</v>
+        <v>6.512568000107101</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.55997003720185</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.934823676234486</v>
       </c>
       <c r="M17">
-        <v>18.04545112279867</v>
+        <v>10.7533890664679</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.42548696350955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.14282481685841</v>
+        <v>14.11730611887547</v>
       </c>
       <c r="C18">
-        <v>17.20189084789211</v>
+        <v>8.670630504211291</v>
       </c>
       <c r="D18">
-        <v>3.728891999997867</v>
+        <v>2.517041029470509</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.0847643953328</v>
+        <v>51.05087061155148</v>
       </c>
       <c r="G18">
-        <v>2.058448341144713</v>
+        <v>2.161109022274387</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>35.74632068797859</v>
       </c>
       <c r="J18">
-        <v>6.633998427608445</v>
+        <v>6.517021139799797</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.43578293833342</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.922792220804798</v>
       </c>
       <c r="M18">
-        <v>17.80306941759878</v>
+        <v>10.7036833633533</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.13250808190021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.02500806536703</v>
+        <v>14.06577789578608</v>
       </c>
       <c r="C19">
-        <v>17.12230981297194</v>
+        <v>8.629875091214217</v>
       </c>
       <c r="D19">
-        <v>3.725351769816082</v>
+        <v>2.517034732899508</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>43.94188064891276</v>
+        <v>50.94669907811314</v>
       </c>
       <c r="G19">
-        <v>2.059414663899638</v>
+        <v>2.161854223856397</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>35.68804870917515</v>
       </c>
       <c r="J19">
-        <v>6.631533777475338</v>
+        <v>6.5185426510805</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.39365844016041</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.918777299559972</v>
       </c>
       <c r="M19">
-        <v>17.72051535387659</v>
+        <v>10.68694114292481</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.03353094720013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.55243903992182</v>
+        <v>14.29710169532993</v>
       </c>
       <c r="C20">
-        <v>17.47857946454307</v>
+        <v>8.812302914898947</v>
       </c>
       <c r="D20">
-        <v>3.741342117820862</v>
+        <v>2.517008408576548</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>44.58563219252949</v>
+        <v>51.41591606866361</v>
       </c>
       <c r="G20">
-        <v>2.055069030784542</v>
+        <v>2.158507000198944</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>35.95079716699717</v>
       </c>
       <c r="J20">
-        <v>6.642927914005329</v>
+        <v>6.511750359199358</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.5829172946933</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.93707842841051</v>
       </c>
       <c r="M20">
-        <v>18.09008027673785</v>
+        <v>10.76262985221251</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.47981626908901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.27749839488838</v>
+        <v>15.06427308821249</v>
       </c>
       <c r="C21">
-        <v>18.64405102569259</v>
+        <v>9.408486752415426</v>
       </c>
       <c r="D21">
-        <v>3.796112107817225</v>
+        <v>2.515947910219889</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>46.7624487708045</v>
+        <v>52.9997628846323</v>
       </c>
       <c r="G21">
-        <v>2.040498277157916</v>
+        <v>2.147360649581429</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>36.84269488588382</v>
       </c>
       <c r="J21">
-        <v>6.686723720446606</v>
+        <v>6.489887188854332</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.334362530322</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.002718312288507</v>
       </c>
       <c r="M21">
-        <v>19.29873745073927</v>
+        <v>11.02296109689032</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.99518195324981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.37145491248979</v>
+        <v>15.55794440092773</v>
       </c>
       <c r="C22">
-        <v>19.38340837502431</v>
+        <v>9.786067988275244</v>
       </c>
       <c r="D22">
-        <v>3.832709390161301</v>
+        <v>2.514510733820151</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>48.19659396232131</v>
+        <v>54.04017648863906</v>
       </c>
       <c r="G22">
-        <v>2.030969951877628</v>
+        <v>2.140137740869271</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>37.43246872273509</v>
       </c>
       <c r="J22">
-        <v>6.719727459134216</v>
+        <v>6.476313893614891</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.86456528783293</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.048790939187567</v>
       </c>
       <c r="M22">
-        <v>20.06518304549163</v>
+        <v>11.19755501581068</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.99834091053029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.79054376173085</v>
+        <v>15.29517937680317</v>
       </c>
       <c r="C23">
-        <v>18.9907644871432</v>
+        <v>9.585620794731103</v>
       </c>
       <c r="D23">
-        <v>3.813101435046182</v>
+        <v>2.515347169019858</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>47.43002211014311</v>
+        <v>53.48441174709797</v>
       </c>
       <c r="G23">
-        <v>2.036057814724386</v>
+        <v>2.143987927536957</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>37.11705874682135</v>
       </c>
       <c r="J23">
-        <v>6.701693549758053</v>
+        <v>6.483492634793023</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.58319534311343</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.023905489069408</v>
       </c>
       <c r="M23">
-        <v>19.65818780668808</v>
+        <v>11.103965417096</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.46169286056809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.52365579955649</v>
+        <v>14.28443550058342</v>
       </c>
       <c r="C24">
-        <v>17.45913630328411</v>
+        <v>8.802348891726956</v>
       </c>
       <c r="D24">
-        <v>3.740460118140016</v>
+        <v>2.517013462981521</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.55023016172438</v>
+        <v>51.39012056807096</v>
       </c>
       <c r="G24">
-        <v>2.055307493277787</v>
+        <v>2.15869040760936</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>35.93633416035085</v>
       </c>
       <c r="J24">
-        <v>6.642282119540297</v>
+        <v>6.512119758925159</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.57254443859187</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.936058000376184</v>
       </c>
       <c r="M24">
-        <v>18.06991252464018</v>
+        <v>10.75845058615089</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.45525035432411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.92489126280687</v>
+        <v>13.16292125501593</v>
       </c>
       <c r="C25">
-        <v>15.70384094257103</v>
+        <v>7.90302287770312</v>
       </c>
       <c r="D25">
-        <v>3.665423280605319</v>
+        <v>2.515739900195675</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.48739711287895</v>
+        <v>49.15540946905084</v>
       </c>
       <c r="G25">
-        <v>2.076219960576259</v>
+        <v>2.174893748451421</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>34.69183636788154</v>
       </c>
       <c r="J25">
-        <v>6.595303837092829</v>
+        <v>6.546061665073534</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.65894582927236</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.854416147982939</v>
       </c>
       <c r="M25">
-        <v>16.24880755839052</v>
+        <v>10.40517294918826</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.34085089001506</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.31363318757496</v>
+        <v>16.94169430348854</v>
       </c>
       <c r="C2">
-        <v>7.191253322021089</v>
+        <v>5.636622064413784</v>
       </c>
       <c r="D2">
-        <v>2.512286818457885</v>
+        <v>3.870082907719691</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47.53376017118248</v>
+        <v>57.75520820565022</v>
       </c>
       <c r="G2">
-        <v>2.187200357772269</v>
+        <v>3.804516726942671</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>33.800494587504</v>
+        <v>42.09939780854234</v>
       </c>
       <c r="J2">
-        <v>6.573683591141996</v>
+        <v>10.64191498200138</v>
       </c>
       <c r="K2">
-        <v>10.97448121528911</v>
+        <v>15.40375714176112</v>
       </c>
       <c r="L2">
-        <v>6.805027687266323</v>
+        <v>11.93954911668933</v>
       </c>
       <c r="M2">
-        <v>10.16213523779209</v>
+        <v>17.60402457809402</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.72608887163347</v>
+        <v>16.9114781145587</v>
       </c>
       <c r="C3">
-        <v>6.6766864883488</v>
+        <v>5.503319704475319</v>
       </c>
       <c r="D3">
-        <v>2.50843383211001</v>
+        <v>3.884552454888674</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>46.45172796106863</v>
+        <v>57.56375546146774</v>
       </c>
       <c r="G3">
-        <v>2.195810851175246</v>
+        <v>3.807580588487176</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>33.21225172690004</v>
+        <v>41.99529817583594</v>
       </c>
       <c r="J3">
-        <v>6.594043606951285</v>
+        <v>10.65082586175178</v>
       </c>
       <c r="K3">
-        <v>10.50550858992456</v>
+        <v>15.38256010984919</v>
       </c>
       <c r="L3">
-        <v>6.77797400264389</v>
+        <v>11.96143220058406</v>
       </c>
       <c r="M3">
-        <v>10.00830606477558</v>
+        <v>17.63456705616493</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.36065213723322</v>
+        <v>16.89780840594036</v>
       </c>
       <c r="C4">
-        <v>6.344480302530017</v>
+        <v>5.421737974753001</v>
       </c>
       <c r="D4">
-        <v>2.505338668893731</v>
+        <v>3.894117155200859</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.79660513508517</v>
+        <v>57.45274711121302</v>
       </c>
       <c r="G4">
-        <v>2.201241660388457</v>
+        <v>3.809560628227747</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.85900995194868</v>
+        <v>41.93525426547308</v>
       </c>
       <c r="J4">
-        <v>6.607353906542743</v>
+        <v>10.65669546977638</v>
       </c>
       <c r="K4">
-        <v>10.21602044081584</v>
+        <v>15.37360434875898</v>
       </c>
       <c r="L4">
-        <v>6.764438171925448</v>
+        <v>11.97636402433608</v>
       </c>
       <c r="M4">
-        <v>9.919293008166354</v>
+        <v>17.65640887744636</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.21077770818017</v>
+        <v>16.89347174508333</v>
       </c>
       <c r="C5">
-        <v>6.204962447210282</v>
+        <v>5.388615212229653</v>
       </c>
       <c r="D5">
-        <v>2.503896233207183</v>
+        <v>3.898186162793965</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>45.53210942089254</v>
+        <v>57.40917508727381</v>
       </c>
       <c r="G5">
-        <v>2.203492415802689</v>
+        <v>3.810392445375092</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.71708331693541</v>
+        <v>41.91176792023661</v>
       </c>
       <c r="J5">
-        <v>6.61298143890172</v>
+        <v>10.65918777481414</v>
       </c>
       <c r="K5">
-        <v>10.09783779044197</v>
+        <v>15.37097942068446</v>
       </c>
       <c r="L5">
-        <v>6.759682205520365</v>
+        <v>11.98282531822759</v>
       </c>
       <c r="M5">
-        <v>9.884397103464224</v>
+        <v>17.66608648770728</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.18584055760594</v>
+        <v>16.89282631733405</v>
       </c>
       <c r="C6">
-        <v>6.181544022938721</v>
+        <v>5.383124244145518</v>
       </c>
       <c r="D6">
-        <v>2.503645841711869</v>
+        <v>3.898872172410538</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>45.48834378950567</v>
+        <v>57.4020410619211</v>
       </c>
       <c r="G6">
-        <v>2.203868467572962</v>
+        <v>3.810532076532541</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.69363937955171</v>
+        <v>41.90792756138548</v>
       </c>
       <c r="J6">
-        <v>6.613928176542559</v>
+        <v>10.65960769061649</v>
       </c>
       <c r="K6">
-        <v>10.07820618964199</v>
+        <v>15.37060553348918</v>
       </c>
       <c r="L6">
-        <v>6.758937988849064</v>
+        <v>11.9839209592823</v>
       </c>
       <c r="M6">
-        <v>9.878686115615995</v>
+        <v>17.66774037431558</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.35863443187519</v>
+        <v>16.89774491746163</v>
       </c>
       <c r="C7">
-        <v>6.342615550540994</v>
+        <v>5.421290699555305</v>
       </c>
       <c r="D7">
-        <v>2.505319946198227</v>
+        <v>3.894171337286209</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>45.793027846633</v>
+        <v>57.45215271909041</v>
       </c>
       <c r="G7">
-        <v>2.201271860518316</v>
+        <v>3.809571745329597</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.85708765836694</v>
+        <v>41.93493353430271</v>
       </c>
       <c r="J7">
-        <v>6.607428977507003</v>
+        <v>10.6567286750722</v>
       </c>
       <c r="K7">
-        <v>10.21442721056272</v>
+        <v>15.37356479499068</v>
       </c>
       <c r="L7">
-        <v>6.764370971853344</v>
+        <v>11.97644963884817</v>
       </c>
       <c r="M7">
-        <v>9.918816800293571</v>
+        <v>17.6565362472741</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.11214204001207</v>
+        <v>16.93026620106729</v>
       </c>
       <c r="C8">
-        <v>7.017172938253062</v>
+        <v>5.590636935005877</v>
       </c>
       <c r="D8">
-        <v>2.511111126639952</v>
+        <v>3.874930945534695</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.15884133238251</v>
+        <v>57.68784894018832</v>
       </c>
       <c r="G8">
-        <v>2.190140292503276</v>
+        <v>3.805552689342324</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>33.5960349454914</v>
+        <v>42.06270524799504</v>
       </c>
       <c r="J8">
-        <v>6.580535778613406</v>
+        <v>10.64490493111558</v>
       </c>
       <c r="K8">
-        <v>10.81319528442806</v>
+        <v>15.39560848408125</v>
       </c>
       <c r="L8">
-        <v>6.795053366000814</v>
+        <v>11.94678424904934</v>
       </c>
       <c r="M8">
-        <v>10.10797280248838</v>
+        <v>17.61391475446068</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54464350661317</v>
+        <v>17.03246883009831</v>
       </c>
       <c r="C9">
-        <v>8.213490963710683</v>
+        <v>5.922484176218295</v>
       </c>
       <c r="D9">
-        <v>2.516567606685137</v>
+        <v>3.842588286238307</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>49.90472631640978</v>
+        <v>58.20107544803535</v>
       </c>
       <c r="G9">
-        <v>2.169382227978194</v>
+        <v>3.798451442505667</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>35.10718477732469</v>
+        <v>42.34362833928076</v>
       </c>
       <c r="J9">
-        <v>6.534219467613121</v>
+        <v>10.62486825035218</v>
       </c>
       <c r="K9">
-        <v>11.96876733164246</v>
+        <v>15.47083572156843</v>
       </c>
       <c r="L9">
-        <v>6.880215012883974</v>
+        <v>11.90045932362849</v>
       </c>
       <c r="M9">
-        <v>10.52155132121444</v>
+        <v>17.5548274979348</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.56134056909552</v>
+        <v>17.1304790945139</v>
       </c>
       <c r="C10">
-        <v>9.019092314705473</v>
+        <v>6.163144622472264</v>
       </c>
       <c r="D10">
-        <v>2.51680917661587</v>
+        <v>3.822096400751178</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>51.95673229212468</v>
+        <v>58.60796129860866</v>
       </c>
       <c r="G10">
-        <v>2.154676765174478</v>
+        <v>3.793704200709024</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>36.25449824708717</v>
+        <v>42.56800063695456</v>
       </c>
       <c r="J10">
-        <v>6.504108376158942</v>
+        <v>10.61205290765868</v>
       </c>
       <c r="K10">
-        <v>12.79956758278289</v>
+        <v>15.54527644017652</v>
       </c>
       <c r="L10">
-        <v>6.958842918334806</v>
+        <v>11.87362392728881</v>
       </c>
       <c r="M10">
-        <v>10.85071761675373</v>
+        <v>17.52632494786375</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.0150077198138</v>
+        <v>17.17991108943601</v>
       </c>
       <c r="C11">
-        <v>9.370566839657444</v>
+        <v>6.271361125786915</v>
       </c>
       <c r="D11">
-        <v>2.516059579227338</v>
+        <v>3.813481259319709</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.89682162870402</v>
+        <v>58.79923429210474</v>
       </c>
       <c r="G11">
-        <v>2.148079040702076</v>
+        <v>3.791645444465344</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.78450336346123</v>
+        <v>42.67384977281963</v>
       </c>
       <c r="J11">
-        <v>6.491262220742135</v>
+        <v>10.60663359750338</v>
       </c>
       <c r="K11">
-        <v>13.281071301133</v>
+        <v>15.5832142304963</v>
       </c>
       <c r="L11">
-        <v>6.99828168546026</v>
+        <v>11.86297372784874</v>
       </c>
       <c r="M11">
-        <v>11.00583183234558</v>
+        <v>17.51658826839228</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.18547806864333</v>
+        <v>17.19931363999341</v>
       </c>
       <c r="C12">
-        <v>9.50158639031749</v>
+        <v>6.312114096507577</v>
       </c>
       <c r="D12">
-        <v>2.515648396927048</v>
+        <v>3.810320331158237</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.25371802620609</v>
+        <v>58.87252454455439</v>
       </c>
       <c r="G12">
-        <v>2.145591459476451</v>
+        <v>3.790880250259699</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.98637996092823</v>
+        <v>42.71446362296808</v>
       </c>
       <c r="J12">
-        <v>6.486520392478687</v>
+        <v>10.60464022930936</v>
       </c>
       <c r="K12">
-        <v>13.46516788416598</v>
+        <v>15.59815718132868</v>
       </c>
       <c r="L12">
-        <v>7.013759358037998</v>
+        <v>11.85916423943646</v>
       </c>
       <c r="M12">
-        <v>11.06533427206261</v>
+        <v>17.51336471656156</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14882364149477</v>
+        <v>17.19510476664529</v>
       </c>
       <c r="C13">
-        <v>9.473459971767324</v>
+        <v>6.303347959701466</v>
       </c>
       <c r="D13">
-        <v>2.515742677576172</v>
+        <v>3.81099658501603</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.17681413904648</v>
+        <v>58.85670243671382</v>
       </c>
       <c r="G13">
-        <v>2.146126763049075</v>
+        <v>3.791044408826361</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>36.94284959531057</v>
+        <v>42.70569329187417</v>
       </c>
       <c r="J13">
-        <v>6.487536166370614</v>
+        <v>10.60506692478305</v>
       </c>
       <c r="K13">
-        <v>13.42565518684612</v>
+        <v>15.594913453669</v>
       </c>
       <c r="L13">
-        <v>7.01040155914126</v>
+        <v>11.85997474738393</v>
       </c>
       <c r="M13">
-        <v>11.05248547459473</v>
+        <v>17.51403836614869</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02905914846231</v>
+        <v>17.18149372561765</v>
       </c>
       <c r="C14">
-        <v>9.381387022359707</v>
+        <v>6.274718677923993</v>
       </c>
       <c r="D14">
-        <v>2.516028325158446</v>
+        <v>3.813219175928531</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>52.92616572233035</v>
+        <v>58.80524687479885</v>
       </c>
       <c r="G14">
-        <v>2.147874183193657</v>
+        <v>3.791582203099725</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>36.80108819490689</v>
+        <v>42.67718052979189</v>
       </c>
       <c r="J14">
-        <v>6.490869646116093</v>
+        <v>10.60646842455475</v>
       </c>
       <c r="K14">
-        <v>13.29627837976913</v>
+        <v>15.58443209283308</v>
       </c>
       <c r="L14">
-        <v>6.99954406861493</v>
+        <v>11.86265584202381</v>
       </c>
       <c r="M14">
-        <v>11.01071185799215</v>
+        <v>17.51631378065106</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95552647524808</v>
+        <v>17.17324520051989</v>
       </c>
       <c r="C15">
-        <v>9.324721800295894</v>
+        <v>6.257151670540878</v>
       </c>
       <c r="D15">
-        <v>2.516186595605676</v>
+        <v>3.814593781892063</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.77275336106605</v>
+        <v>58.77383987895528</v>
       </c>
       <c r="G15">
-        <v>2.148945864987622</v>
+        <v>3.791913492104727</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.71440891302492</v>
+        <v>42.65978441577737</v>
       </c>
       <c r="J15">
-        <v>6.492927491443084</v>
+        <v>10.60733453565229</v>
       </c>
       <c r="K15">
-        <v>13.21663197501924</v>
+        <v>15.57808677855268</v>
       </c>
       <c r="L15">
-        <v>6.992964732585571</v>
+        <v>11.86432718433585</v>
       </c>
       <c r="M15">
-        <v>10.98522361660867</v>
+        <v>17.51776787367351</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53150939284653</v>
+        <v>17.12734501982037</v>
       </c>
       <c r="C16">
-        <v>8.995827558159251</v>
+        <v>6.156043129413349</v>
       </c>
       <c r="D16">
-        <v>2.516840556513285</v>
+        <v>3.822673625510077</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>51.89542369216684</v>
+        <v>58.59558302554402</v>
       </c>
       <c r="G16">
-        <v>2.155109592482744</v>
+        <v>3.793840766439294</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>36.22002460072649</v>
+        <v>42.5611581669204</v>
       </c>
       <c r="J16">
-        <v>6.504965060483076</v>
+        <v>10.61241531322106</v>
       </c>
       <c r="K16">
-        <v>12.77508496130145</v>
+        <v>15.5428783391972</v>
       </c>
       <c r="L16">
-        <v>6.956340647876385</v>
+        <v>11.87435124419538</v>
       </c>
       <c r="M16">
-        <v>10.84068785427135</v>
+        <v>17.52702617487294</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.26907915896629</v>
+        <v>17.10041903718423</v>
       </c>
       <c r="C17">
-        <v>8.790275467631464</v>
+        <v>6.093660336282246</v>
       </c>
       <c r="D17">
-        <v>2.517019033640233</v>
+        <v>3.82781122220591</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.35886234746835</v>
+        <v>58.48779038201355</v>
       </c>
       <c r="G17">
-        <v>2.15891274690258</v>
+        <v>3.795048843164959</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>35.91881113379431</v>
+        <v>42.50161380205066</v>
       </c>
       <c r="J17">
-        <v>6.512568000107101</v>
+        <v>10.61563717872913</v>
       </c>
       <c r="K17">
-        <v>12.55997003720185</v>
+        <v>15.52231639249479</v>
       </c>
       <c r="L17">
-        <v>6.934823676234486</v>
+        <v>11.88089925427826</v>
       </c>
       <c r="M17">
-        <v>10.7533890664679</v>
+        <v>17.53353238057231</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.11730611887547</v>
+        <v>17.08538897512197</v>
       </c>
       <c r="C18">
-        <v>8.670630504211291</v>
+        <v>6.057663186260315</v>
       </c>
       <c r="D18">
-        <v>2.517041029470509</v>
+        <v>3.830832762794576</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>51.05087061155148</v>
+        <v>58.4263742918637</v>
       </c>
       <c r="G18">
-        <v>2.161109022274387</v>
+        <v>3.795753188387876</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>35.74632068797859</v>
+        <v>42.46772214755145</v>
       </c>
       <c r="J18">
-        <v>6.517021139799797</v>
+        <v>10.61752895719696</v>
       </c>
       <c r="K18">
-        <v>12.43578293833342</v>
+        <v>15.51087380200751</v>
       </c>
       <c r="L18">
-        <v>6.922792220804798</v>
+        <v>11.8848121097107</v>
       </c>
       <c r="M18">
-        <v>10.7036833633533</v>
+        <v>17.53757859250858</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.06577789578608</v>
+        <v>17.08037893774884</v>
       </c>
       <c r="C19">
-        <v>8.629875091214217</v>
+        <v>6.045456630210957</v>
       </c>
       <c r="D19">
-        <v>2.517034732899508</v>
+        <v>3.831867236978232</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.94669907811314</v>
+        <v>58.40568092308839</v>
       </c>
       <c r="G19">
-        <v>2.161854223856397</v>
+        <v>3.795993300221192</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>35.68804870917515</v>
+        <v>42.45630865140156</v>
       </c>
       <c r="J19">
-        <v>6.5185426510805</v>
+        <v>10.61817612507559</v>
       </c>
       <c r="K19">
-        <v>12.39365844016041</v>
+        <v>15.50706577170084</v>
       </c>
       <c r="L19">
-        <v>6.918777299559972</v>
+        <v>11.88616212918319</v>
       </c>
       <c r="M19">
-        <v>10.68694114292481</v>
+        <v>17.53900080857343</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.29710169532993</v>
+        <v>17.10323814312681</v>
       </c>
       <c r="C20">
-        <v>8.812302914898947</v>
+        <v>6.100313454704425</v>
       </c>
       <c r="D20">
-        <v>2.517008408576548</v>
+        <v>3.827257431943808</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.41591606866361</v>
+        <v>58.49920492141345</v>
       </c>
       <c r="G20">
-        <v>2.158507000198944</v>
+        <v>3.794919259594796</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>35.95079716699717</v>
+        <v>42.50791557463745</v>
       </c>
       <c r="J20">
-        <v>6.511750359199358</v>
+        <v>10.61529020743068</v>
       </c>
       <c r="K20">
-        <v>12.5829172946933</v>
+        <v>15.52446555780155</v>
       </c>
       <c r="L20">
-        <v>6.93707842841051</v>
+        <v>11.88018703658661</v>
       </c>
       <c r="M20">
-        <v>10.76262985221251</v>
+        <v>17.53280832517018</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06427308821249</v>
+        <v>17.18547317288056</v>
       </c>
       <c r="C21">
-        <v>9.408486752415426</v>
+        <v>6.283134274993597</v>
       </c>
       <c r="D21">
-        <v>2.515947910219889</v>
+        <v>3.812563595552047</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>52.9997628846323</v>
+        <v>58.82033753764831</v>
       </c>
       <c r="G21">
-        <v>2.147360649581429</v>
+        <v>3.791423849388339</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>36.84269488588382</v>
+        <v>42.68554110976211</v>
       </c>
       <c r="J21">
-        <v>6.489887188854332</v>
+        <v>10.60605517580818</v>
       </c>
       <c r="K21">
-        <v>13.334362530322</v>
+        <v>15.58749514725716</v>
       </c>
       <c r="L21">
-        <v>7.002718312288507</v>
+        <v>11.86186227709276</v>
       </c>
       <c r="M21">
-        <v>11.02296109689032</v>
+        <v>17.51563286402112</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55794440092773</v>
+        <v>17.24319691353707</v>
       </c>
       <c r="C22">
-        <v>9.786067988275244</v>
+        <v>6.4012808063016</v>
       </c>
       <c r="D22">
-        <v>2.514510733820151</v>
+        <v>3.803551503067357</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>54.04017648863906</v>
+        <v>59.03521062933452</v>
       </c>
       <c r="G22">
-        <v>2.140137740869271</v>
+        <v>3.789223364258753</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>37.43246872273509</v>
+        <v>42.80471888424599</v>
       </c>
       <c r="J22">
-        <v>6.476313893614891</v>
+        <v>10.60036222151222</v>
       </c>
       <c r="K22">
-        <v>13.86456528783293</v>
+        <v>15.63204544610552</v>
       </c>
       <c r="L22">
-        <v>7.048790939187567</v>
+        <v>11.85118856257048</v>
       </c>
       <c r="M22">
-        <v>11.19755501581068</v>
+        <v>17.50710894256157</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29517937680317</v>
+        <v>17.2120292884982</v>
       </c>
       <c r="C23">
-        <v>9.585620794731103</v>
+        <v>6.338360165522388</v>
       </c>
       <c r="D23">
-        <v>2.515347169019858</v>
+        <v>3.808307394437773</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>53.48441174709797</v>
+        <v>58.92008179302833</v>
       </c>
       <c r="G23">
-        <v>2.143987927536957</v>
+        <v>3.790390148209427</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>37.11705874682135</v>
+        <v>42.74083314169972</v>
       </c>
       <c r="J23">
-        <v>6.483492634793023</v>
+        <v>10.60336937472178</v>
       </c>
       <c r="K23">
-        <v>13.58319534311343</v>
+        <v>15.60796419993375</v>
       </c>
       <c r="L23">
-        <v>7.023905489069408</v>
+        <v>11.85676628877143</v>
       </c>
       <c r="M23">
-        <v>11.103965417096</v>
+        <v>17.51141147533532</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.28443550058342</v>
+        <v>17.10196222245937</v>
       </c>
       <c r="C24">
-        <v>8.802348891726956</v>
+        <v>6.09730598898327</v>
       </c>
       <c r="D24">
-        <v>2.517013462981521</v>
+        <v>3.827507589124549</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.39012056807096</v>
+        <v>58.49404267591607</v>
       </c>
       <c r="G24">
-        <v>2.15869040760936</v>
+        <v>3.794977813774871</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>35.93633416035085</v>
+        <v>42.50506547935655</v>
       </c>
       <c r="J24">
-        <v>6.512119758925159</v>
+        <v>10.6154469501467</v>
       </c>
       <c r="K24">
-        <v>12.57254443859187</v>
+        <v>15.52349273968872</v>
       </c>
       <c r="L24">
-        <v>6.936058000376184</v>
+        <v>11.88050856817383</v>
       </c>
       <c r="M24">
-        <v>10.75845058615089</v>
+        <v>17.53313471827916</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.16292125501593</v>
+        <v>17.0007535809014</v>
       </c>
       <c r="C25">
-        <v>7.90302287770312</v>
+        <v>5.833056032400104</v>
       </c>
       <c r="D25">
-        <v>2.515739900195675</v>
+        <v>3.850762523457111</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.15540946905084</v>
+        <v>58.05689827876006</v>
       </c>
       <c r="G25">
-        <v>2.174893748451421</v>
+        <v>3.800289575513133</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.69183636788154</v>
+        <v>42.26443265200996</v>
       </c>
       <c r="J25">
-        <v>6.546061665073534</v>
+        <v>10.62995301628857</v>
       </c>
       <c r="K25">
-        <v>11.65894582927236</v>
+        <v>15.44709018060732</v>
       </c>
       <c r="L25">
-        <v>6.854416147982939</v>
+        <v>11.91172533016048</v>
       </c>
       <c r="M25">
-        <v>10.40517294918826</v>
+        <v>17.5681918217838</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.94169430348854</v>
+        <v>12.31363318757498</v>
       </c>
       <c r="C2">
-        <v>5.636622064413784</v>
+        <v>7.191253322021105</v>
       </c>
       <c r="D2">
-        <v>3.870082907719691</v>
+        <v>2.51228681845782</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>57.75520820565022</v>
+        <v>47.53376017118234</v>
       </c>
       <c r="G2">
-        <v>3.804516726942671</v>
+        <v>2.187200357772132</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>42.09939780854234</v>
+        <v>33.80049458750391</v>
       </c>
       <c r="J2">
-        <v>10.64191498200138</v>
+        <v>6.573683591142021</v>
       </c>
       <c r="K2">
-        <v>15.40375714176112</v>
+        <v>10.9744812152891</v>
       </c>
       <c r="L2">
-        <v>11.93954911668933</v>
+        <v>6.805027687266299</v>
       </c>
       <c r="M2">
-        <v>17.60402457809402</v>
+        <v>10.16213523779206</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.9114781145587</v>
+        <v>11.72608887163343</v>
       </c>
       <c r="C3">
-        <v>5.503319704475319</v>
+        <v>6.676686488348666</v>
       </c>
       <c r="D3">
-        <v>3.884552454888674</v>
+        <v>2.508433832110079</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>57.56375546146774</v>
+        <v>46.45172796106861</v>
       </c>
       <c r="G3">
-        <v>3.807580588487176</v>
+        <v>2.195810851175243</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>41.99529817583594</v>
+        <v>33.2122517269</v>
       </c>
       <c r="J3">
-        <v>10.65082586175178</v>
+        <v>6.594043606951317</v>
       </c>
       <c r="K3">
-        <v>15.38256010984919</v>
+        <v>10.50550858992456</v>
       </c>
       <c r="L3">
-        <v>11.96143220058406</v>
+        <v>6.777974002643851</v>
       </c>
       <c r="M3">
-        <v>17.63456705616493</v>
+        <v>10.00830606477555</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.89780840594036</v>
+        <v>11.36065213723322</v>
       </c>
       <c r="C4">
-        <v>5.421737974753001</v>
+        <v>6.344480302529925</v>
       </c>
       <c r="D4">
-        <v>3.894117155200859</v>
+        <v>2.505338668893839</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.45274711121302</v>
+        <v>45.79660513508496</v>
       </c>
       <c r="G4">
-        <v>3.809560628227747</v>
+        <v>2.201241660388195</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>41.93525426547308</v>
+        <v>32.85900995194852</v>
       </c>
       <c r="J4">
-        <v>10.65669546977638</v>
+        <v>6.607353906542805</v>
       </c>
       <c r="K4">
-        <v>15.37360434875898</v>
+        <v>10.21602044081586</v>
       </c>
       <c r="L4">
-        <v>11.97636402433608</v>
+        <v>6.764438171925474</v>
       </c>
       <c r="M4">
-        <v>17.65640887744636</v>
+        <v>9.91929300816636</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.89347174508333</v>
+        <v>11.21077770818022</v>
       </c>
       <c r="C5">
-        <v>5.388615212229653</v>
+        <v>6.204962447210298</v>
       </c>
       <c r="D5">
-        <v>3.898186162793965</v>
+        <v>2.503896233207505</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.40917508727381</v>
+        <v>45.53210942089263</v>
       </c>
       <c r="G5">
-        <v>3.810392445375092</v>
+        <v>2.203492415802558</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>41.91176792023661</v>
+        <v>32.71708331693554</v>
       </c>
       <c r="J5">
-        <v>10.65918777481414</v>
+        <v>6.612981438901848</v>
       </c>
       <c r="K5">
-        <v>15.37097942068446</v>
+        <v>10.09783779044202</v>
       </c>
       <c r="L5">
-        <v>11.98282531822759</v>
+        <v>6.759682205520337</v>
       </c>
       <c r="M5">
-        <v>17.66608648770728</v>
+        <v>9.884397103464265</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.89282631733405</v>
+        <v>11.185840557606</v>
       </c>
       <c r="C6">
-        <v>5.383124244145518</v>
+        <v>6.181544022938605</v>
       </c>
       <c r="D6">
-        <v>3.898872172410538</v>
+        <v>2.50364584171193</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>57.4020410619211</v>
+        <v>45.48834378950592</v>
       </c>
       <c r="G6">
-        <v>3.810532076532541</v>
+        <v>2.203868467572828</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>41.90792756138548</v>
+        <v>32.6936393795519</v>
       </c>
       <c r="J6">
-        <v>10.65960769061649</v>
+        <v>6.613928176542526</v>
       </c>
       <c r="K6">
-        <v>15.37060553348918</v>
+        <v>10.07820618964205</v>
       </c>
       <c r="L6">
-        <v>11.9839209592823</v>
+        <v>6.758937988849032</v>
       </c>
       <c r="M6">
-        <v>17.66774037431558</v>
+        <v>9.878686115616022</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.89774491746163</v>
+        <v>11.35863443187516</v>
       </c>
       <c r="C7">
-        <v>5.421290699555305</v>
+        <v>6.342615550540947</v>
       </c>
       <c r="D7">
-        <v>3.894171337286209</v>
+        <v>2.50531994619836</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.45215271909041</v>
+        <v>45.79302784663297</v>
       </c>
       <c r="G7">
-        <v>3.809571745329597</v>
+        <v>2.201271860518712</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>41.93493353430271</v>
+        <v>32.85708765836699</v>
       </c>
       <c r="J7">
-        <v>10.6567286750722</v>
+        <v>6.60742897750697</v>
       </c>
       <c r="K7">
-        <v>15.37356479499068</v>
+        <v>10.21442721056268</v>
       </c>
       <c r="L7">
-        <v>11.97644963884817</v>
+        <v>6.764370971853253</v>
       </c>
       <c r="M7">
-        <v>17.6565362472741</v>
+        <v>9.918816800293467</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.93026620106729</v>
+        <v>12.11214204001208</v>
       </c>
       <c r="C8">
-        <v>5.590636935005877</v>
+        <v>7.017172938253033</v>
       </c>
       <c r="D8">
-        <v>3.874930945534695</v>
+        <v>2.511111126640138</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>57.68784894018832</v>
+        <v>47.15884133238252</v>
       </c>
       <c r="G8">
-        <v>3.805552689342324</v>
+        <v>2.190140292502879</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>42.06270524799504</v>
+        <v>33.59603494549142</v>
       </c>
       <c r="J8">
-        <v>10.64490493111558</v>
+        <v>6.580535778613501</v>
       </c>
       <c r="K8">
-        <v>15.39560848408125</v>
+        <v>10.81319528442809</v>
       </c>
       <c r="L8">
-        <v>11.94678424904934</v>
+        <v>6.795053366000865</v>
       </c>
       <c r="M8">
-        <v>17.61391475446068</v>
+        <v>10.10797280248842</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.03246883009831</v>
+        <v>13.5446435066131</v>
       </c>
       <c r="C9">
-        <v>5.922484176218295</v>
+        <v>8.213490963710663</v>
       </c>
       <c r="D9">
-        <v>3.842588286238307</v>
+        <v>2.516567606685287</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>58.20107544803535</v>
+        <v>49.90472631640973</v>
       </c>
       <c r="G9">
-        <v>3.798451442505667</v>
+        <v>2.169382227978325</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>42.34362833928076</v>
+        <v>35.10718477732465</v>
       </c>
       <c r="J9">
-        <v>10.62486825035218</v>
+        <v>6.534219467613318</v>
       </c>
       <c r="K9">
-        <v>15.47083572156843</v>
+        <v>11.96876733164243</v>
       </c>
       <c r="L9">
-        <v>11.90045932362849</v>
+        <v>6.880215012884119</v>
       </c>
       <c r="M9">
-        <v>17.5548274979348</v>
+        <v>10.52155132121442</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.1304790945139</v>
+        <v>14.5613405690955</v>
       </c>
       <c r="C10">
-        <v>6.163144622472264</v>
+        <v>9.019092314705434</v>
       </c>
       <c r="D10">
-        <v>3.822096400751178</v>
+        <v>2.516809176615944</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>58.60796129860866</v>
+        <v>51.95673229212471</v>
       </c>
       <c r="G10">
-        <v>3.793704200709024</v>
+        <v>2.154676765174212</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>42.56800063695456</v>
+        <v>36.25449824708713</v>
       </c>
       <c r="J10">
-        <v>10.61205290765868</v>
+        <v>6.504108376158915</v>
       </c>
       <c r="K10">
-        <v>15.54527644017652</v>
+        <v>12.79956758278289</v>
       </c>
       <c r="L10">
-        <v>11.87362392728881</v>
+        <v>6.958842918334838</v>
       </c>
       <c r="M10">
-        <v>17.52632494786375</v>
+        <v>10.85071761675368</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.17991108943601</v>
+        <v>15.0150077198138</v>
       </c>
       <c r="C11">
-        <v>6.271361125786915</v>
+        <v>9.370566839657471</v>
       </c>
       <c r="D11">
-        <v>3.813481259319709</v>
+        <v>2.516059579227413</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>58.79923429210474</v>
+        <v>52.8968216287039</v>
       </c>
       <c r="G11">
-        <v>3.791645444465344</v>
+        <v>2.148079040701816</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>42.67384977281963</v>
+        <v>36.78450336346115</v>
       </c>
       <c r="J11">
-        <v>10.60663359750338</v>
+        <v>6.491262220742103</v>
       </c>
       <c r="K11">
-        <v>15.5832142304963</v>
+        <v>13.28107130113301</v>
       </c>
       <c r="L11">
-        <v>11.86297372784874</v>
+        <v>6.998281685460187</v>
       </c>
       <c r="M11">
-        <v>17.51658826839228</v>
+        <v>11.00583183234554</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.19931363999341</v>
+        <v>15.18547806864335</v>
       </c>
       <c r="C12">
-        <v>6.312114096507577</v>
+        <v>9.501586390317533</v>
       </c>
       <c r="D12">
-        <v>3.810320331158237</v>
+        <v>2.515648396927115</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>58.87252454455439</v>
+        <v>53.25371802620634</v>
       </c>
       <c r="G12">
-        <v>3.790880250259699</v>
+        <v>2.14559145947685</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>42.71446362296808</v>
+        <v>36.9863799609285</v>
       </c>
       <c r="J12">
-        <v>10.60464022930936</v>
+        <v>6.486520392478804</v>
       </c>
       <c r="K12">
-        <v>15.59815718132868</v>
+        <v>13.46516788416588</v>
       </c>
       <c r="L12">
-        <v>11.85916423943646</v>
+        <v>7.013759358038034</v>
       </c>
       <c r="M12">
-        <v>17.51336471656156</v>
+        <v>11.06533427206269</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.19510476664529</v>
+        <v>15.14882364149475</v>
       </c>
       <c r="C13">
-        <v>6.303347959701466</v>
+        <v>9.473459971767292</v>
       </c>
       <c r="D13">
-        <v>3.81099658501603</v>
+        <v>2.51574267757618</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>58.85670243671382</v>
+        <v>53.17681413904657</v>
       </c>
       <c r="G13">
-        <v>3.791044408826361</v>
+        <v>2.146126763049205</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>42.70569329187417</v>
+        <v>36.94284959531062</v>
       </c>
       <c r="J13">
-        <v>10.60506692478305</v>
+        <v>6.487536166370502</v>
       </c>
       <c r="K13">
-        <v>15.594913453669</v>
+        <v>13.42565518684615</v>
       </c>
       <c r="L13">
-        <v>11.85997474738393</v>
+        <v>7.010401559141195</v>
       </c>
       <c r="M13">
-        <v>17.51403836614869</v>
+        <v>11.05248547459467</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.18149372561765</v>
+        <v>15.02905914846227</v>
       </c>
       <c r="C14">
-        <v>6.274718677923993</v>
+        <v>9.381387022359865</v>
       </c>
       <c r="D14">
-        <v>3.813219175928531</v>
+        <v>2.516028325158334</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>58.80524687479885</v>
+        <v>52.92616572233045</v>
       </c>
       <c r="G14">
-        <v>3.791582203099725</v>
+        <v>2.147874183194053</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>42.67718052979189</v>
+        <v>36.80108819490692</v>
       </c>
       <c r="J14">
-        <v>10.60646842455475</v>
+        <v>6.490869646115915</v>
       </c>
       <c r="K14">
-        <v>15.58443209283308</v>
+        <v>13.29627837976919</v>
       </c>
       <c r="L14">
-        <v>11.86265584202381</v>
+        <v>6.999544068614783</v>
       </c>
       <c r="M14">
-        <v>17.51631378065106</v>
+        <v>11.01071185799207</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.17324520051989</v>
+        <v>14.95552647524808</v>
       </c>
       <c r="C15">
-        <v>6.257151670540878</v>
+        <v>9.324721800295894</v>
       </c>
       <c r="D15">
-        <v>3.814593781892063</v>
+        <v>2.516186595605906</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>58.77383987895528</v>
+        <v>52.77275336106614</v>
       </c>
       <c r="G15">
-        <v>3.791913492104727</v>
+        <v>2.148945864987753</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>42.65978441577737</v>
+        <v>36.71440891302501</v>
       </c>
       <c r="J15">
-        <v>10.60733453565229</v>
+        <v>6.492927491443022</v>
       </c>
       <c r="K15">
-        <v>15.57808677855268</v>
+        <v>13.21663197501922</v>
       </c>
       <c r="L15">
-        <v>11.86432718433585</v>
+        <v>6.992964732585487</v>
       </c>
       <c r="M15">
-        <v>17.51776787367351</v>
+        <v>10.98522361660865</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.12734501982037</v>
+        <v>14.53150939284653</v>
       </c>
       <c r="C16">
-        <v>6.156043129413349</v>
+        <v>8.99582755815946</v>
       </c>
       <c r="D16">
-        <v>3.822673625510077</v>
+        <v>2.516840556513301</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>58.59558302554402</v>
+        <v>51.895423692167</v>
       </c>
       <c r="G16">
-        <v>3.793840766439294</v>
+        <v>2.155109592483137</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>42.5611581669204</v>
+        <v>36.22002460072665</v>
       </c>
       <c r="J16">
-        <v>10.61241531322106</v>
+        <v>6.504965060483109</v>
       </c>
       <c r="K16">
-        <v>15.5428783391972</v>
+        <v>12.77508496130144</v>
       </c>
       <c r="L16">
-        <v>11.87435124419538</v>
+        <v>6.956340647876368</v>
       </c>
       <c r="M16">
-        <v>17.52702617487294</v>
+        <v>10.84068785427136</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.10041903718423</v>
+        <v>14.26907915896629</v>
       </c>
       <c r="C17">
-        <v>6.093660336282246</v>
+        <v>8.790275467631611</v>
       </c>
       <c r="D17">
-        <v>3.82781122220591</v>
+        <v>2.517019033640112</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>58.48779038201355</v>
+        <v>51.35886234746829</v>
       </c>
       <c r="G17">
-        <v>3.795048843164959</v>
+        <v>2.158912746902581</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>42.50161380205066</v>
+        <v>35.91881113379431</v>
       </c>
       <c r="J17">
-        <v>10.61563717872913</v>
+        <v>6.512568000107259</v>
       </c>
       <c r="K17">
-        <v>15.52231639249479</v>
+        <v>12.55997003720182</v>
       </c>
       <c r="L17">
-        <v>11.88089925427826</v>
+        <v>6.934823676234533</v>
       </c>
       <c r="M17">
-        <v>17.53353238057231</v>
+        <v>10.75338906646791</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.08538897512197</v>
+        <v>14.11730611887545</v>
       </c>
       <c r="C18">
-        <v>6.057663186260315</v>
+        <v>8.670630504211237</v>
       </c>
       <c r="D18">
-        <v>3.830832762794576</v>
+        <v>2.517041029470491</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>58.4263742918637</v>
+        <v>51.05087061155168</v>
       </c>
       <c r="G18">
-        <v>3.795753188387876</v>
+        <v>2.161109022274255</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>42.46772214755145</v>
+        <v>35.74632068797874</v>
       </c>
       <c r="J18">
-        <v>10.61752895719696</v>
+        <v>6.517021139799686</v>
       </c>
       <c r="K18">
-        <v>15.51087380200751</v>
+        <v>12.43578293833342</v>
       </c>
       <c r="L18">
-        <v>11.8848121097107</v>
+        <v>6.922792220804766</v>
       </c>
       <c r="M18">
-        <v>17.53757859250858</v>
+        <v>10.70368336335321</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.08037893774884</v>
+        <v>14.06577789578606</v>
       </c>
       <c r="C19">
-        <v>6.045456630210957</v>
+        <v>8.629875091214375</v>
       </c>
       <c r="D19">
-        <v>3.831867236978232</v>
+        <v>2.5170347328994</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>58.40568092308839</v>
+        <v>50.94669907811299</v>
       </c>
       <c r="G19">
-        <v>3.795993300221192</v>
+        <v>2.161854223856658</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>42.45630865140156</v>
+        <v>35.68804870917503</v>
       </c>
       <c r="J19">
-        <v>10.61817612507559</v>
+        <v>6.518542651080525</v>
       </c>
       <c r="K19">
-        <v>15.50706577170084</v>
+        <v>12.39365844016038</v>
       </c>
       <c r="L19">
-        <v>11.88616212918319</v>
+        <v>6.918777299560008</v>
       </c>
       <c r="M19">
-        <v>17.53900080857343</v>
+        <v>10.68694114292482</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.10323814312681</v>
+        <v>14.29710169532991</v>
       </c>
       <c r="C20">
-        <v>6.100313454704425</v>
+        <v>8.812302914899007</v>
       </c>
       <c r="D20">
-        <v>3.827257431943808</v>
+        <v>2.517008408576752</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>58.49920492141345</v>
+        <v>51.41591606866341</v>
       </c>
       <c r="G20">
-        <v>3.794919259594796</v>
+        <v>2.158507000199215</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>42.50791557463745</v>
+        <v>35.95079716699707</v>
       </c>
       <c r="J20">
-        <v>10.61529020743068</v>
+        <v>6.511750359199326</v>
       </c>
       <c r="K20">
-        <v>15.52446555780155</v>
+        <v>12.58291729469327</v>
       </c>
       <c r="L20">
-        <v>11.88018703658661</v>
+        <v>6.937078428410413</v>
       </c>
       <c r="M20">
-        <v>17.53280832517018</v>
+        <v>10.76262985221243</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.18547317288056</v>
+        <v>15.06427308821245</v>
       </c>
       <c r="C21">
-        <v>6.283134274993597</v>
+        <v>9.408486752415312</v>
       </c>
       <c r="D21">
-        <v>3.812563595552047</v>
+        <v>2.515947910219912</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>58.82033753764831</v>
+        <v>52.99976288463233</v>
       </c>
       <c r="G21">
-        <v>3.791423849388339</v>
+        <v>2.147360649581554</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>42.68554110976211</v>
+        <v>36.84269488588379</v>
       </c>
       <c r="J21">
-        <v>10.60605517580818</v>
+        <v>6.489887188854279</v>
       </c>
       <c r="K21">
-        <v>15.58749514725716</v>
+        <v>13.33436253032204</v>
       </c>
       <c r="L21">
-        <v>11.86186227709276</v>
+        <v>7.002718312288519</v>
       </c>
       <c r="M21">
-        <v>17.51563286402112</v>
+        <v>11.02296109689028</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.24319691353707</v>
+        <v>15.55794440092775</v>
       </c>
       <c r="C22">
-        <v>6.4012808063016</v>
+        <v>9.786067988275068</v>
       </c>
       <c r="D22">
-        <v>3.803551503067357</v>
+        <v>2.514510733820195</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>59.03521062933452</v>
+        <v>54.04017648863899</v>
       </c>
       <c r="G22">
-        <v>3.789223364258753</v>
+        <v>2.140137740869015</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>42.80471888424599</v>
+        <v>37.432468722735</v>
       </c>
       <c r="J22">
-        <v>10.60036222151222</v>
+        <v>6.476313893614864</v>
       </c>
       <c r="K22">
-        <v>15.63204544610552</v>
+        <v>13.86456528783291</v>
       </c>
       <c r="L22">
-        <v>11.85118856257048</v>
+        <v>7.048790939187646</v>
       </c>
       <c r="M22">
-        <v>17.50710894256157</v>
+        <v>11.19755501581069</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.2120292884982</v>
+        <v>15.29517937680318</v>
       </c>
       <c r="C23">
-        <v>6.338360165522388</v>
+        <v>9.585620794731001</v>
       </c>
       <c r="D23">
-        <v>3.808307394437773</v>
+        <v>2.515347169020012</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>58.92008179302833</v>
+        <v>53.484411747098</v>
       </c>
       <c r="G23">
-        <v>3.790390148209427</v>
+        <v>2.143987927536818</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>42.74083314169972</v>
+        <v>37.11705874682141</v>
       </c>
       <c r="J23">
-        <v>10.60336937472178</v>
+        <v>6.483492634793107</v>
       </c>
       <c r="K23">
-        <v>15.60796419993375</v>
+        <v>13.58319534311333</v>
       </c>
       <c r="L23">
-        <v>11.85676628877143</v>
+        <v>7.023905489069415</v>
       </c>
       <c r="M23">
-        <v>17.51141147533532</v>
+        <v>11.10396541709606</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.10196222245937</v>
+        <v>14.28443550058341</v>
       </c>
       <c r="C24">
-        <v>6.09730598898327</v>
+        <v>8.802348891726805</v>
       </c>
       <c r="D24">
-        <v>3.827507589124549</v>
+        <v>2.517013462981453</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>58.49404267591607</v>
+        <v>51.3901205680711</v>
       </c>
       <c r="G24">
-        <v>3.794977813774871</v>
+        <v>2.158690407609367</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>42.50506547935655</v>
+        <v>35.93633416035089</v>
       </c>
       <c r="J24">
-        <v>10.6154469501467</v>
+        <v>6.512119758925099</v>
       </c>
       <c r="K24">
-        <v>15.52349273968872</v>
+        <v>12.57254443859184</v>
       </c>
       <c r="L24">
-        <v>11.88050856817383</v>
+        <v>6.936058000376246</v>
       </c>
       <c r="M24">
-        <v>17.53313471827916</v>
+        <v>10.75845058615089</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.0007535809014</v>
+        <v>13.1629212550159</v>
       </c>
       <c r="C25">
-        <v>5.833056032400104</v>
+        <v>7.90302287770315</v>
       </c>
       <c r="D25">
-        <v>3.850762523457111</v>
+        <v>2.515739900195666</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>58.05689827876006</v>
+        <v>49.15540946905069</v>
       </c>
       <c r="G25">
-        <v>3.800289575513133</v>
+        <v>2.174893748451552</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>42.26443265200996</v>
+        <v>34.69183636788144</v>
       </c>
       <c r="J25">
-        <v>10.62995301628857</v>
+        <v>6.546061665073564</v>
       </c>
       <c r="K25">
-        <v>15.44709018060732</v>
+        <v>11.65894582927236</v>
       </c>
       <c r="L25">
-        <v>11.91172533016048</v>
+        <v>6.854416147982964</v>
       </c>
       <c r="M25">
-        <v>17.5681918217838</v>
+        <v>10.40517294918824</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.31363318757498</v>
+        <v>20.67660222725308</v>
       </c>
       <c r="C2">
-        <v>7.191253322021105</v>
+        <v>15.57973557048098</v>
       </c>
       <c r="D2">
-        <v>2.51228681845782</v>
+        <v>8.716861310922877</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>47.53376017118234</v>
+        <v>19.28361536840264</v>
       </c>
       <c r="G2">
-        <v>2.187200357772132</v>
+        <v>18.36977569235544</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.715366141329479</v>
       </c>
       <c r="I2">
-        <v>33.80049458750391</v>
+        <v>2.831296953226626</v>
       </c>
       <c r="J2">
-        <v>6.573683591142021</v>
+        <v>7.978292128793648</v>
       </c>
       <c r="K2">
-        <v>10.9744812152891</v>
+        <v>11.46885357853797</v>
       </c>
       <c r="L2">
-        <v>6.805027687266299</v>
+        <v>7.492816608211118</v>
       </c>
       <c r="M2">
-        <v>10.16213523779206</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16.69482642194279</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.5359091320754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.72608887163343</v>
+        <v>19.36907052083783</v>
       </c>
       <c r="C3">
-        <v>6.676686488348666</v>
+        <v>14.70794477785975</v>
       </c>
       <c r="D3">
-        <v>2.508433832110079</v>
+        <v>8.409417573464859</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>46.45172796106861</v>
+        <v>19.01381586035788</v>
       </c>
       <c r="G3">
-        <v>2.195810851175243</v>
+        <v>18.08121050673374</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.922105110928083</v>
       </c>
       <c r="I3">
-        <v>33.2122517269</v>
+        <v>2.693385890333801</v>
       </c>
       <c r="J3">
-        <v>6.594043606951317</v>
+        <v>8.030471894434436</v>
       </c>
       <c r="K3">
-        <v>10.50550858992456</v>
+        <v>11.73124976634417</v>
       </c>
       <c r="L3">
-        <v>6.777974002643851</v>
+        <v>7.392771276321532</v>
       </c>
       <c r="M3">
-        <v>10.00830606477555</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15.7490724162431</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.54630366538696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.36065213723322</v>
+        <v>18.51813261642865</v>
       </c>
       <c r="C4">
-        <v>6.344480302529925</v>
+        <v>14.14942686077771</v>
       </c>
       <c r="D4">
-        <v>2.505338668893839</v>
+        <v>8.215993643707133</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>45.79660513508496</v>
+        <v>18.85530718581996</v>
       </c>
       <c r="G4">
-        <v>2.201241660388195</v>
+        <v>17.91710291864532</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.05369261368904</v>
       </c>
       <c r="I4">
-        <v>32.85900995194852</v>
+        <v>2.606472470074017</v>
       </c>
       <c r="J4">
-        <v>6.607353906542805</v>
+        <v>8.065940767337807</v>
       </c>
       <c r="K4">
-        <v>10.21602044081586</v>
+        <v>11.89681189579887</v>
       </c>
       <c r="L4">
-        <v>6.764438171925474</v>
+        <v>7.329818684887361</v>
       </c>
       <c r="M4">
-        <v>9.91929300816636</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.13949253838575</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.56033039879063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.21077770818022</v>
+        <v>18.15842004548419</v>
       </c>
       <c r="C5">
-        <v>6.204962447210298</v>
+        <v>13.92844159014074</v>
       </c>
       <c r="D5">
-        <v>2.503896233207505</v>
+        <v>8.137389320802336</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>45.53210942089263</v>
+        <v>18.78541097719608</v>
       </c>
       <c r="G5">
-        <v>2.203492415802558</v>
+        <v>17.84051764841796</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.108628083737123</v>
       </c>
       <c r="I5">
-        <v>32.71708331693554</v>
+        <v>2.571188144858176</v>
       </c>
       <c r="J5">
-        <v>6.612981438901848</v>
+        <v>8.079266386018451</v>
       </c>
       <c r="K5">
-        <v>10.09783779044202</v>
+        <v>11.96210394510552</v>
       </c>
       <c r="L5">
-        <v>6.759682205520337</v>
+        <v>7.303296434959192</v>
       </c>
       <c r="M5">
-        <v>9.884397103464265</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>14.8867159716217</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.56280885353604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.185840557606</v>
+        <v>18.096898270138</v>
       </c>
       <c r="C6">
-        <v>6.181544022938605</v>
+        <v>13.90651142542859</v>
       </c>
       <c r="D6">
-        <v>2.50364584171193</v>
+        <v>8.125865437808706</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>45.48834378950592</v>
+        <v>18.76520581458749</v>
       </c>
       <c r="G6">
-        <v>2.203868467572828</v>
+        <v>17.81213281213793</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.117978285768</v>
       </c>
       <c r="I6">
-        <v>32.6936393795519</v>
+        <v>2.566369049775854</v>
       </c>
       <c r="J6">
-        <v>6.613928176542526</v>
+        <v>8.079127484278084</v>
       </c>
       <c r="K6">
-        <v>10.07820618964205</v>
+        <v>11.96900001978353</v>
       </c>
       <c r="L6">
-        <v>6.758937988849032</v>
+        <v>7.298270736317923</v>
       </c>
       <c r="M6">
-        <v>9.878686115616022</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>14.84769559747637</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.55710980787345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.35863443187516</v>
+        <v>18.5105011336894</v>
       </c>
       <c r="C7">
-        <v>6.342615550540947</v>
+        <v>14.18693289845762</v>
       </c>
       <c r="D7">
-        <v>2.50531994619836</v>
+        <v>8.219232387982903</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>45.79302784663297</v>
+        <v>18.83070675410304</v>
       </c>
       <c r="G7">
-        <v>2.201271860518712</v>
+        <v>17.87296040573581</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.054844373456735</v>
       </c>
       <c r="I7">
-        <v>32.85708765836699</v>
+        <v>2.608552682690166</v>
       </c>
       <c r="J7">
-        <v>6.60742897750697</v>
+        <v>8.059564116496546</v>
       </c>
       <c r="K7">
-        <v>10.21442721056268</v>
+        <v>11.88671923380318</v>
       </c>
       <c r="L7">
-        <v>6.764370971853253</v>
+        <v>7.327846817618827</v>
       </c>
       <c r="M7">
-        <v>9.918816800293467</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.14513740452032</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.54338899426293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.11214204001208</v>
+        <v>20.23232217424446</v>
       </c>
       <c r="C8">
-        <v>7.017172938253033</v>
+        <v>15.33417154771783</v>
       </c>
       <c r="D8">
-        <v>2.511111126640138</v>
+        <v>8.617325642032931</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>47.15884133238252</v>
+        <v>19.15850038355406</v>
       </c>
       <c r="G8">
-        <v>2.190140292502879</v>
+        <v>18.21177383407468</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.786196013379039</v>
       </c>
       <c r="I8">
-        <v>33.59603494549142</v>
+        <v>2.787016111221579</v>
       </c>
       <c r="J8">
-        <v>6.580535778613501</v>
+        <v>7.986910540214029</v>
       </c>
       <c r="K8">
-        <v>10.81319528442809</v>
+        <v>11.54388126251253</v>
       </c>
       <c r="L8">
-        <v>6.795053366000865</v>
+        <v>7.456590534010197</v>
       </c>
       <c r="M8">
-        <v>10.10797280248842</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>16.38587459667352</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.51554199254892</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.5446435066131</v>
+        <v>23.23150061192463</v>
       </c>
       <c r="C9">
-        <v>8.213490963710663</v>
+        <v>17.32992448716917</v>
       </c>
       <c r="D9">
-        <v>2.516567606685287</v>
+        <v>9.350407482080675</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>49.90472631640973</v>
+        <v>19.89807123957995</v>
       </c>
       <c r="G9">
-        <v>2.169382227978325</v>
+        <v>19.05536914449419</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.819815417500491</v>
       </c>
       <c r="I9">
-        <v>35.10718477732465</v>
+        <v>3.116469861610109</v>
       </c>
       <c r="J9">
-        <v>6.534219467613318</v>
+        <v>7.884605394237202</v>
       </c>
       <c r="K9">
-        <v>11.96876733164243</v>
+        <v>10.92662689918559</v>
       </c>
       <c r="L9">
-        <v>6.880215012884119</v>
+        <v>7.699497069632113</v>
       </c>
       <c r="M9">
-        <v>10.52155132121442</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>18.57095991619922</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.55500002756551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.5613405690955</v>
+        <v>25.23412327724229</v>
       </c>
       <c r="C10">
-        <v>9.019092314705434</v>
+        <v>18.70142833721759</v>
       </c>
       <c r="D10">
-        <v>2.516809176615944</v>
+        <v>9.752631812493982</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>51.95673229212471</v>
+        <v>20.29207303542515</v>
       </c>
       <c r="G10">
-        <v>2.154676765174212</v>
+        <v>19.54349174668503</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.139421304976866</v>
       </c>
       <c r="I10">
-        <v>36.25449824708713</v>
+        <v>3.346959616656975</v>
       </c>
       <c r="J10">
-        <v>6.504108376158915</v>
+        <v>7.797435598167639</v>
       </c>
       <c r="K10">
-        <v>12.79956758278289</v>
+        <v>10.45674510915457</v>
       </c>
       <c r="L10">
-        <v>6.958842918334838</v>
+        <v>7.777902243826993</v>
       </c>
       <c r="M10">
-        <v>10.85071761675368</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>19.89987624689722</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.54644808363361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.0150077198138</v>
+        <v>26.36842476740025</v>
       </c>
       <c r="C11">
-        <v>9.370566839657471</v>
+        <v>19.41099836401186</v>
       </c>
       <c r="D11">
-        <v>2.516059579227413</v>
+        <v>9.002959351888158</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.8968216287039</v>
+        <v>18.97300556351794</v>
       </c>
       <c r="G11">
-        <v>2.148079040701816</v>
+        <v>18.20282932185916</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.968162690262947</v>
       </c>
       <c r="I11">
-        <v>36.78450336346115</v>
+        <v>3.430051772762208</v>
       </c>
       <c r="J11">
-        <v>6.491262220742103</v>
+        <v>7.509687761722136</v>
       </c>
       <c r="K11">
-        <v>13.28107130113301</v>
+        <v>9.969280158867116</v>
       </c>
       <c r="L11">
-        <v>6.998281685460187</v>
+        <v>7.148014366295458</v>
       </c>
       <c r="M11">
-        <v>11.00583183234554</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.3372554731848</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>11.896954730577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.18547806864335</v>
+        <v>26.92662879537036</v>
       </c>
       <c r="C12">
-        <v>9.501586390317533</v>
+        <v>19.68207608342598</v>
       </c>
       <c r="D12">
-        <v>2.515648396927115</v>
+        <v>8.292159312942035</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.25371802620634</v>
+        <v>17.80077133460038</v>
       </c>
       <c r="G12">
-        <v>2.14559145947685</v>
+        <v>17.00354090156786</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.201799316401654</v>
       </c>
       <c r="I12">
-        <v>36.9863799609285</v>
+        <v>3.45094021148404</v>
       </c>
       <c r="J12">
-        <v>6.486520392478804</v>
+        <v>7.293671719696476</v>
       </c>
       <c r="K12">
-        <v>13.46516788416588</v>
+        <v>9.703683397654176</v>
       </c>
       <c r="L12">
-        <v>7.013759358038034</v>
+        <v>6.806094409624687</v>
       </c>
       <c r="M12">
-        <v>11.06533427206269</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.56448707612907</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>11.36933183412325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.14882364149475</v>
+        <v>27.09057020350349</v>
       </c>
       <c r="C13">
-        <v>9.473459971767292</v>
+        <v>19.68912110873927</v>
       </c>
       <c r="D13">
-        <v>2.51574267757618</v>
+        <v>7.567126397648434</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.17681413904657</v>
+        <v>16.62947903729604</v>
       </c>
       <c r="G13">
-        <v>2.146126763049205</v>
+        <v>15.75839494740417</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.513071210163821</v>
       </c>
       <c r="I13">
-        <v>36.94284959531062</v>
+        <v>3.428922093255415</v>
       </c>
       <c r="J13">
-        <v>6.487536166370502</v>
+        <v>7.110445278677465</v>
       </c>
       <c r="K13">
-        <v>13.42565518684615</v>
+        <v>9.579158342722325</v>
       </c>
       <c r="L13">
-        <v>7.010401559141195</v>
+        <v>6.687272491797884</v>
       </c>
       <c r="M13">
-        <v>11.05248547459467</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.57066025415245</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>10.87732444045067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.02905914846227</v>
+        <v>27.02903968715945</v>
       </c>
       <c r="C14">
-        <v>9.381387022359865</v>
+        <v>19.58447445062701</v>
       </c>
       <c r="D14">
-        <v>2.516028325158334</v>
+        <v>7.058462596390534</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>52.92616572233045</v>
+        <v>15.80965827874053</v>
       </c>
       <c r="G14">
-        <v>2.147874183194053</v>
+        <v>14.85223483357903</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.457046962191912</v>
       </c>
       <c r="I14">
-        <v>36.80108819490692</v>
+        <v>3.395178214737224</v>
       </c>
       <c r="J14">
-        <v>6.490869646115915</v>
+        <v>6.997227129852448</v>
       </c>
       <c r="K14">
-        <v>13.29627837976919</v>
+        <v>9.560468970537785</v>
       </c>
       <c r="L14">
-        <v>6.999544068614783</v>
+        <v>6.740949540035077</v>
       </c>
       <c r="M14">
-        <v>11.01071185799207</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.76271345610634</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>10.54861944809309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.95552647524808</v>
+        <v>26.92830206268176</v>
       </c>
       <c r="C15">
-        <v>9.324721800295894</v>
+        <v>19.5148444642213</v>
       </c>
       <c r="D15">
-        <v>2.516186595605906</v>
+        <v>6.931110458323367</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.77275336106614</v>
+        <v>15.60548400709234</v>
       </c>
       <c r="G15">
-        <v>2.148945864987753</v>
+        <v>14.61066957941601</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.672057925899458</v>
       </c>
       <c r="I15">
-        <v>36.71440891302501</v>
+        <v>3.378682340466617</v>
       </c>
       <c r="J15">
-        <v>6.492927491443022</v>
+        <v>6.975121637315112</v>
       </c>
       <c r="K15">
-        <v>13.21663197501922</v>
+        <v>9.58055678624344</v>
       </c>
       <c r="L15">
-        <v>6.992964732585487</v>
+        <v>6.770356577035382</v>
       </c>
       <c r="M15">
-        <v>10.98522361660865</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.51975402908539</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10.47241511744811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.53150939284653</v>
+        <v>26.09418906209439</v>
       </c>
       <c r="C16">
-        <v>8.99582755815946</v>
+        <v>18.97393760758818</v>
       </c>
       <c r="D16">
-        <v>2.516840556513301</v>
+        <v>6.882168267095937</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>51.895423692167</v>
+        <v>15.64422784562055</v>
       </c>
       <c r="G16">
-        <v>2.155109592483137</v>
+        <v>14.58375985309582</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.454041166590938</v>
       </c>
       <c r="I16">
-        <v>36.22002460072665</v>
+        <v>3.286623742538191</v>
       </c>
       <c r="J16">
-        <v>6.504965060483109</v>
+        <v>7.047206240574785</v>
       </c>
       <c r="K16">
-        <v>12.77508496130144</v>
+        <v>9.803347316582514</v>
       </c>
       <c r="L16">
-        <v>6.956340647876368</v>
+        <v>6.74973075902893</v>
       </c>
       <c r="M16">
-        <v>10.84068785427136</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>16.10368674110612</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10.56511314327861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.26907915896629</v>
+        <v>25.47288213968742</v>
       </c>
       <c r="C17">
-        <v>8.790275467631611</v>
+        <v>18.60998858233013</v>
       </c>
       <c r="D17">
-        <v>2.517019033640112</v>
+        <v>7.116545441144477</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>51.35886234746829</v>
+        <v>16.1092333052509</v>
       </c>
       <c r="G17">
-        <v>2.158912746902581</v>
+        <v>15.05429194028206</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.703721761033237</v>
       </c>
       <c r="I17">
-        <v>35.91881113379431</v>
+        <v>3.233969367352602</v>
       </c>
       <c r="J17">
-        <v>6.512568000107259</v>
+        <v>7.161691891375141</v>
       </c>
       <c r="K17">
-        <v>12.55997003720182</v>
+        <v>9.98070776039158</v>
       </c>
       <c r="L17">
-        <v>6.934823676234533</v>
+        <v>6.684879754133663</v>
       </c>
       <c r="M17">
-        <v>10.75338906646791</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.23110278038101</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>10.80925772828893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.11730611887545</v>
+        <v>24.97880688584338</v>
       </c>
       <c r="C18">
-        <v>8.670630504211237</v>
+        <v>18.33564933730526</v>
       </c>
       <c r="D18">
-        <v>2.517041029470491</v>
+        <v>7.638943498455565</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>51.05087061155168</v>
+        <v>17.01693011146708</v>
       </c>
       <c r="G18">
-        <v>2.161109022274255</v>
+        <v>16.02938000801445</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.423469092414275</v>
       </c>
       <c r="I18">
-        <v>35.74632068797874</v>
+        <v>3.207461724695884</v>
       </c>
       <c r="J18">
-        <v>6.517021139799686</v>
+        <v>7.330906743055237</v>
       </c>
       <c r="K18">
-        <v>12.43578293833342</v>
+        <v>10.1609307074852</v>
       </c>
       <c r="L18">
-        <v>6.922792220804766</v>
+        <v>6.696958689832987</v>
       </c>
       <c r="M18">
-        <v>10.70368336335321</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.83781974929629</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.22389857670808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.06577789578606</v>
+        <v>24.6287061176135</v>
       </c>
       <c r="C19">
-        <v>8.629875091214375</v>
+        <v>18.22181056602056</v>
       </c>
       <c r="D19">
-        <v>2.5170347328994</v>
+        <v>8.381107318733534</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.94669907811299</v>
+        <v>18.19067291796109</v>
       </c>
       <c r="G19">
-        <v>2.161854223856658</v>
+        <v>17.26332093085738</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.04298663295079</v>
       </c>
       <c r="I19">
-        <v>35.68804870917503</v>
+        <v>3.213420073076104</v>
       </c>
       <c r="J19">
-        <v>6.518542651080525</v>
+        <v>7.52405869648462</v>
       </c>
       <c r="K19">
-        <v>12.39365844016038</v>
+        <v>10.3446213150922</v>
       </c>
       <c r="L19">
-        <v>6.918777299560008</v>
+        <v>6.945063609703721</v>
       </c>
       <c r="M19">
-        <v>10.68694114292482</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.78488473718094</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>11.72305918374441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.29710169532991</v>
+        <v>24.7189549194233</v>
       </c>
       <c r="C20">
-        <v>8.812302914899007</v>
+        <v>18.45121494190021</v>
       </c>
       <c r="D20">
-        <v>2.517008408576752</v>
+        <v>9.655074997167581</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>51.41591606866341</v>
+        <v>20.11122785570024</v>
       </c>
       <c r="G20">
-        <v>2.158507000199215</v>
+        <v>19.28092408253863</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.0538668080587</v>
       </c>
       <c r="I20">
-        <v>35.95079716699707</v>
+        <v>3.295816242098319</v>
       </c>
       <c r="J20">
-        <v>6.511750359199326</v>
+        <v>7.79761851842103</v>
       </c>
       <c r="K20">
-        <v>12.58291729469327</v>
+        <v>10.54322238626539</v>
       </c>
       <c r="L20">
-        <v>6.937078428410413</v>
+        <v>7.749144386619049</v>
       </c>
       <c r="M20">
-        <v>10.76262985221243</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>19.57566822850354</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.49116002116501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.06427308821245</v>
+        <v>26.13434359388606</v>
       </c>
       <c r="C21">
-        <v>9.408486752415312</v>
+        <v>19.42774826679362</v>
       </c>
       <c r="D21">
-        <v>2.515947910219912</v>
+        <v>10.12151577405827</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>52.99976288463233</v>
+        <v>20.70409246033344</v>
       </c>
       <c r="G21">
-        <v>2.147360649581554</v>
+        <v>19.97710864936774</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.313234784319891</v>
       </c>
       <c r="I21">
-        <v>36.84269488588379</v>
+        <v>3.472554070456303</v>
       </c>
       <c r="J21">
-        <v>6.489887188854279</v>
+        <v>7.785044994911069</v>
       </c>
       <c r="K21">
-        <v>13.33436253032204</v>
+        <v>10.24718197280877</v>
       </c>
       <c r="L21">
-        <v>7.002718312288519</v>
+        <v>7.950122366519238</v>
       </c>
       <c r="M21">
-        <v>11.02296109689028</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>20.75058349682707</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.6236221528986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.55794440092775</v>
+        <v>27.03685363092265</v>
       </c>
       <c r="C22">
-        <v>9.786067988275068</v>
+        <v>20.00914502253475</v>
       </c>
       <c r="D22">
-        <v>2.514510733820195</v>
+        <v>10.35929142083823</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>54.04017648863899</v>
+        <v>21.03611882168083</v>
       </c>
       <c r="G22">
-        <v>2.140137740869015</v>
+        <v>20.40089904814496</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.472561940397021</v>
       </c>
       <c r="I22">
-        <v>37.432468722735</v>
+        <v>3.581463800150585</v>
       </c>
       <c r="J22">
-        <v>6.476313893614864</v>
+        <v>7.775038640736351</v>
       </c>
       <c r="K22">
-        <v>13.86456528783291</v>
+        <v>10.05618669562999</v>
       </c>
       <c r="L22">
-        <v>7.048790939187646</v>
+        <v>8.034743814976391</v>
       </c>
       <c r="M22">
-        <v>11.19755501581069</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>21.41388588685795</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.7031484170581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.29517937680318</v>
+        <v>26.56133273489268</v>
       </c>
       <c r="C23">
-        <v>9.585620794731001</v>
+        <v>19.66462869757616</v>
       </c>
       <c r="D23">
-        <v>2.515347169020012</v>
+        <v>10.22875564985819</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>53.484411747098</v>
+        <v>20.88320490084984</v>
       </c>
       <c r="G23">
-        <v>2.143987927536818</v>
+        <v>20.21814058211761</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.388155169278354</v>
       </c>
       <c r="I23">
-        <v>37.11705874682141</v>
+        <v>3.520085598103135</v>
       </c>
       <c r="J23">
-        <v>6.483492634793107</v>
+        <v>7.787610344894853</v>
       </c>
       <c r="K23">
-        <v>13.58319534311333</v>
+        <v>10.17096827084759</v>
       </c>
       <c r="L23">
-        <v>7.023905489069415</v>
+        <v>7.991309697031898</v>
       </c>
       <c r="M23">
-        <v>11.10396541709606</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.0545590784995</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.67901656721362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.28443550058341</v>
+        <v>24.67307784582113</v>
       </c>
       <c r="C24">
-        <v>8.802348891726805</v>
+        <v>18.37036611515819</v>
       </c>
       <c r="D24">
-        <v>2.517013462981453</v>
+        <v>9.728570707466719</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>51.3901205680711</v>
+        <v>20.27678182809293</v>
       </c>
       <c r="G24">
-        <v>2.158690407609367</v>
+        <v>19.48042500742665</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.061153574554725</v>
       </c>
       <c r="I24">
-        <v>35.93633416035089</v>
+        <v>3.289433837075699</v>
       </c>
       <c r="J24">
-        <v>6.512119758925099</v>
+        <v>7.831741409089339</v>
       </c>
       <c r="K24">
-        <v>12.57254443859184</v>
+        <v>10.59360971615381</v>
       </c>
       <c r="L24">
-        <v>6.936058000376246</v>
+        <v>7.821463094075454</v>
       </c>
       <c r="M24">
-        <v>10.75845058615089</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>19.65073473310486</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.57657402900471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.1629212550159</v>
+        <v>22.45676611326591</v>
       </c>
       <c r="C25">
-        <v>7.90302287770315</v>
+        <v>16.87343167875527</v>
       </c>
       <c r="D25">
-        <v>2.515739900195666</v>
+        <v>9.163882899829096</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.15540946905069</v>
+        <v>19.65178998117695</v>
       </c>
       <c r="G25">
-        <v>2.174893748451552</v>
+        <v>18.74261473785389</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.693202157491239</v>
       </c>
       <c r="I25">
-        <v>34.69183636788144</v>
+        <v>3.033695315419661</v>
       </c>
       <c r="J25">
-        <v>6.546061665073564</v>
+        <v>7.89728660702609</v>
       </c>
       <c r="K25">
-        <v>11.65894582927236</v>
+        <v>11.06992333553934</v>
       </c>
       <c r="L25">
-        <v>6.854416147982964</v>
+        <v>7.632474660231853</v>
       </c>
       <c r="M25">
-        <v>10.40517294918824</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.01906310955289</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.50687355578917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.67660222725308</v>
+        <v>20.68569456009658</v>
       </c>
       <c r="C2">
-        <v>15.57973557048098</v>
+        <v>15.65089390918151</v>
       </c>
       <c r="D2">
-        <v>8.716861310922877</v>
+        <v>8.734244973425264</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.28361536840264</v>
+        <v>19.16777813702156</v>
       </c>
       <c r="G2">
-        <v>18.36977569235544</v>
+        <v>17.43044813188786</v>
       </c>
       <c r="H2">
-        <v>1.715366141329479</v>
+        <v>1.714572245400518</v>
       </c>
       <c r="I2">
-        <v>2.831296953226626</v>
+        <v>2.865094664945221</v>
       </c>
       <c r="J2">
-        <v>7.978292128793648</v>
+        <v>8.505875183647113</v>
       </c>
       <c r="K2">
-        <v>11.46885357853797</v>
+        <v>11.32814053778293</v>
       </c>
       <c r="L2">
-        <v>7.492816608211118</v>
+        <v>10.25144979830856</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.473001802351326</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.480863067747709</v>
       </c>
       <c r="O2">
-        <v>16.69482642194279</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.5359091320754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.74816582620547</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.45273321713999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.36907052083783</v>
+        <v>19.39131026197319</v>
       </c>
       <c r="C3">
-        <v>14.70794477785975</v>
+        <v>14.68893533659062</v>
       </c>
       <c r="D3">
-        <v>8.409417573464859</v>
+        <v>8.426186291186898</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.01381586035788</v>
+        <v>18.92684589085194</v>
       </c>
       <c r="G3">
-        <v>18.08121050673374</v>
+        <v>17.19181867918027</v>
       </c>
       <c r="H3">
-        <v>1.922105110928083</v>
+        <v>1.914136959577601</v>
       </c>
       <c r="I3">
-        <v>2.693385890333801</v>
+        <v>2.741886792528927</v>
       </c>
       <c r="J3">
-        <v>8.030471894434436</v>
+        <v>8.53143512945136</v>
       </c>
       <c r="K3">
-        <v>11.73124976634417</v>
+        <v>11.58234112263194</v>
       </c>
       <c r="L3">
-        <v>7.392771276321532</v>
+        <v>10.45629744162782</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.697660214761998</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.388678852991642</v>
       </c>
       <c r="O3">
-        <v>15.7490724162431</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.54630366538696</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.78892352392916</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>12.47763587060426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.51813261642865</v>
+        <v>18.54914738876172</v>
       </c>
       <c r="C4">
-        <v>14.14942686077771</v>
+        <v>14.07150530827687</v>
       </c>
       <c r="D4">
-        <v>8.215993643707133</v>
+        <v>8.232750904044803</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.85530718581996</v>
+        <v>18.78469189374153</v>
       </c>
       <c r="G4">
-        <v>17.91710291864532</v>
+        <v>17.0593409888606</v>
       </c>
       <c r="H4">
-        <v>2.05369261368904</v>
+        <v>2.041193371847404</v>
       </c>
       <c r="I4">
-        <v>2.606472470074017</v>
+        <v>2.664387755032004</v>
       </c>
       <c r="J4">
-        <v>8.065940767337807</v>
+        <v>8.548640348034887</v>
       </c>
       <c r="K4">
-        <v>11.89681189579887</v>
+        <v>11.74197400038203</v>
       </c>
       <c r="L4">
-        <v>7.329818684887361</v>
+        <v>10.58924927107625</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.852955293190295</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.330710536046717</v>
       </c>
       <c r="O4">
-        <v>15.13949253838575</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.56033039879063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.17052334896903</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>12.49908350586017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.15842004548419</v>
+        <v>18.19321573952549</v>
       </c>
       <c r="C5">
-        <v>13.92844159014074</v>
+        <v>13.82557371536934</v>
       </c>
       <c r="D5">
-        <v>8.137389320802336</v>
+        <v>8.154211756030458</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.78541097719608</v>
+        <v>18.72125031861559</v>
       </c>
       <c r="G5">
-        <v>17.84051764841796</v>
+        <v>16.99572594893951</v>
       </c>
       <c r="H5">
-        <v>2.108628083737123</v>
+        <v>2.094246989539302</v>
       </c>
       <c r="I5">
-        <v>2.571188144858176</v>
+        <v>2.633295069681147</v>
       </c>
       <c r="J5">
-        <v>8.079266386018451</v>
+        <v>8.554123791461175</v>
       </c>
       <c r="K5">
-        <v>11.96210394510552</v>
+        <v>11.80472700870706</v>
       </c>
       <c r="L5">
-        <v>7.303296434959192</v>
+        <v>10.64151898613087</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.919625816831224</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.306269287648927</v>
       </c>
       <c r="O5">
-        <v>14.8867159716217</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.56280885353604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.91396374131254</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>12.50432705245121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.096898270138</v>
+        <v>18.13235052069919</v>
       </c>
       <c r="C6">
-        <v>13.90651142542859</v>
+        <v>13.7993722316764</v>
       </c>
       <c r="D6">
-        <v>8.125865437808706</v>
+        <v>8.142668737581987</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.76520581458749</v>
+        <v>18.70227984238661</v>
       </c>
       <c r="G6">
-        <v>17.81213281213793</v>
+        <v>16.96938865250259</v>
       </c>
       <c r="H6">
-        <v>2.117978285768</v>
+        <v>2.103279589604719</v>
       </c>
       <c r="I6">
-        <v>2.566369049775854</v>
+        <v>2.629530522280805</v>
       </c>
       <c r="J6">
-        <v>8.079127484278084</v>
+        <v>8.552735443566451</v>
       </c>
       <c r="K6">
-        <v>11.96900001978353</v>
+        <v>11.81130426868746</v>
       </c>
       <c r="L6">
-        <v>7.298270736317923</v>
+        <v>10.64581052232558</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.929974093879783</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.301605314730962</v>
       </c>
       <c r="O6">
-        <v>14.84769559747637</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.55710980787345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.87423264405173</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.49919859976986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.5105011336894</v>
+        <v>18.54132781209276</v>
       </c>
       <c r="C7">
-        <v>14.18693289845762</v>
+        <v>14.10267217987616</v>
       </c>
       <c r="D7">
-        <v>8.219232387982903</v>
+        <v>8.239236677894912</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.83070675410304</v>
+        <v>18.74760436103097</v>
       </c>
       <c r="G7">
-        <v>17.87296040573581</v>
+        <v>17.09794930188891</v>
       </c>
       <c r="H7">
-        <v>2.054844373456735</v>
+        <v>2.042728282150813</v>
       </c>
       <c r="I7">
-        <v>2.608552682690166</v>
+        <v>2.666986349605132</v>
       </c>
       <c r="J7">
-        <v>8.059564116496546</v>
+        <v>8.509555781870635</v>
       </c>
       <c r="K7">
-        <v>11.88671923380318</v>
+        <v>11.72878711822701</v>
       </c>
       <c r="L7">
-        <v>7.327846817618827</v>
+        <v>10.57419414447322</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.849691913939397</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.328398581146423</v>
       </c>
       <c r="O7">
-        <v>15.14513740452032</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.54338899426293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.17605478404164</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>12.47301508019824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.23232217424446</v>
+        <v>20.2450316363611</v>
       </c>
       <c r="C8">
-        <v>15.33417154771783</v>
+        <v>15.35677768726386</v>
       </c>
       <c r="D8">
-        <v>8.617325642032931</v>
+        <v>8.645036884976799</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.15850038355406</v>
+        <v>19.01101188386731</v>
       </c>
       <c r="G8">
-        <v>18.21177383407468</v>
+        <v>17.56099991489325</v>
       </c>
       <c r="H8">
-        <v>1.786196013379039</v>
+        <v>1.784223147776408</v>
       </c>
       <c r="I8">
-        <v>2.787016111221579</v>
+        <v>2.825568965247719</v>
       </c>
       <c r="J8">
-        <v>7.986910540214029</v>
+        <v>8.398992374492858</v>
       </c>
       <c r="K8">
-        <v>11.54388126251253</v>
+        <v>11.39025036847795</v>
       </c>
       <c r="L8">
-        <v>7.456590534010197</v>
+        <v>10.29610045787941</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.534523229872548</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.446131869657092</v>
       </c>
       <c r="O8">
-        <v>16.38587459667352</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.51554199254892</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>16.43481252534795</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.40675542248031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.23150061192463</v>
+        <v>23.21464729768564</v>
       </c>
       <c r="C9">
-        <v>17.32992448716917</v>
+        <v>17.55529611244363</v>
       </c>
       <c r="D9">
-        <v>9.350407482080675</v>
+        <v>9.383574086029869</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.89807123957995</v>
+        <v>19.66140449057379</v>
       </c>
       <c r="G9">
-        <v>19.05536914449419</v>
+        <v>18.34973576571707</v>
       </c>
       <c r="H9">
-        <v>1.819815417500491</v>
+        <v>1.804707354422511</v>
       </c>
       <c r="I9">
-        <v>3.116469861610109</v>
+        <v>3.119211635380498</v>
       </c>
       <c r="J9">
-        <v>7.884605394237202</v>
+        <v>8.32163351102996</v>
       </c>
       <c r="K9">
-        <v>10.92662689918559</v>
+        <v>10.78478489410833</v>
       </c>
       <c r="L9">
-        <v>7.699497069632113</v>
+        <v>9.840309543363922</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.076089973957853</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.670145673082858</v>
       </c>
       <c r="O9">
-        <v>18.57095991619922</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.55500002756551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>18.65049992766347</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.39277054180674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.23412327724229</v>
+        <v>25.19766207309394</v>
       </c>
       <c r="C10">
-        <v>18.70142833721759</v>
+        <v>19.02108465214797</v>
       </c>
       <c r="D10">
-        <v>9.752631812493982</v>
+        <v>9.806025516685677</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.29207303542515</v>
+        <v>19.92450772756671</v>
       </c>
       <c r="G10">
-        <v>19.54349174668503</v>
+        <v>19.26115273713378</v>
       </c>
       <c r="H10">
-        <v>2.139421304976866</v>
+        <v>2.110794575691554</v>
       </c>
       <c r="I10">
-        <v>3.346959616656975</v>
+        <v>3.324013483096054</v>
       </c>
       <c r="J10">
-        <v>7.797435598167639</v>
+        <v>8.068399624662888</v>
       </c>
       <c r="K10">
-        <v>10.45674510915457</v>
+        <v>10.30735608538619</v>
       </c>
       <c r="L10">
-        <v>7.777902243826993</v>
+        <v>9.512577996222495</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.790756537592749</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.734510820425854</v>
       </c>
       <c r="O10">
-        <v>19.89987624689722</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.54644808363361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.99680564856414</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>12.29054793483186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.36842476740025</v>
+        <v>26.32829516346322</v>
       </c>
       <c r="C11">
-        <v>19.41099836401186</v>
+        <v>19.63206000749076</v>
       </c>
       <c r="D11">
-        <v>9.002959351888158</v>
+        <v>9.076515132180878</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18.97300556351794</v>
+        <v>18.51101880756854</v>
       </c>
       <c r="G11">
-        <v>18.20282932185916</v>
+        <v>18.96697497487761</v>
       </c>
       <c r="H11">
-        <v>2.968162690262947</v>
+        <v>2.942553205929341</v>
       </c>
       <c r="I11">
-        <v>3.430051772762208</v>
+        <v>3.396884929547085</v>
       </c>
       <c r="J11">
-        <v>7.509687761722136</v>
+        <v>7.513618059079021</v>
       </c>
       <c r="K11">
-        <v>9.969280158867116</v>
+        <v>9.859882273928982</v>
       </c>
       <c r="L11">
-        <v>7.148014366295458</v>
+        <v>9.25403033271008</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.405307759115948</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.101607463412267</v>
       </c>
       <c r="O11">
-        <v>19.3372554731848</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.896954730577</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.42200778965056</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>11.57154617461721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.92662879537036</v>
+        <v>26.88791881682554</v>
       </c>
       <c r="C12">
-        <v>19.68207608342598</v>
+        <v>19.81568874373968</v>
       </c>
       <c r="D12">
-        <v>8.292159312942035</v>
+        <v>8.365555252124512</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.80077133460038</v>
+        <v>17.33441352566108</v>
       </c>
       <c r="G12">
-        <v>17.00354090156786</v>
+        <v>18.28514715948613</v>
       </c>
       <c r="H12">
-        <v>4.201799316401654</v>
+        <v>4.182911305686023</v>
       </c>
       <c r="I12">
-        <v>3.45094021148404</v>
+        <v>3.413693314663339</v>
       </c>
       <c r="J12">
-        <v>7.293671719696476</v>
+        <v>7.250359701157485</v>
       </c>
       <c r="K12">
-        <v>9.703683397654176</v>
+        <v>9.642130226509282</v>
       </c>
       <c r="L12">
-        <v>6.806094409624687</v>
+        <v>9.149720430940251</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.176622244398178</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.761113138557589</v>
       </c>
       <c r="O12">
-        <v>18.56448707612907</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.36933183412325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.63536955943336</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.0423032564341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.09057020350349</v>
+        <v>27.05770062889069</v>
       </c>
       <c r="C13">
-        <v>19.68912110873927</v>
+        <v>19.74725448725886</v>
       </c>
       <c r="D13">
-        <v>7.567126397648434</v>
+        <v>7.619103172351164</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.62947903729604</v>
+        <v>16.25461777285411</v>
       </c>
       <c r="G13">
-        <v>15.75839494740417</v>
+        <v>16.97965955438404</v>
       </c>
       <c r="H13">
-        <v>5.513071210163821</v>
+        <v>5.499761688492066</v>
       </c>
       <c r="I13">
-        <v>3.428922093255415</v>
+        <v>3.394148658922002</v>
       </c>
       <c r="J13">
-        <v>7.110445278677465</v>
+        <v>7.178658806223686</v>
       </c>
       <c r="K13">
-        <v>9.579158342722325</v>
+        <v>9.56769028316327</v>
       </c>
       <c r="L13">
-        <v>6.687272491797884</v>
+        <v>9.121892581802785</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.059619324429623</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.647712736658663</v>
       </c>
       <c r="O13">
-        <v>17.57066025415245</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10.87732444045067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.62461620959956</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>10.62089519138314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.02903968715945</v>
+        <v>27.00228769465099</v>
       </c>
       <c r="C14">
-        <v>19.58447445062701</v>
+        <v>19.59360403278584</v>
       </c>
       <c r="D14">
-        <v>7.058462596390534</v>
+        <v>7.087474816550126</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>15.80965827874053</v>
+        <v>15.53737573972407</v>
       </c>
       <c r="G14">
-        <v>14.85223483357903</v>
+        <v>15.776469503085</v>
       </c>
       <c r="H14">
-        <v>6.457046962191912</v>
+        <v>6.446892841883897</v>
       </c>
       <c r="I14">
-        <v>3.395178214737224</v>
+        <v>3.365369453227498</v>
       </c>
       <c r="J14">
-        <v>6.997227129852448</v>
+        <v>7.194934279910808</v>
       </c>
       <c r="K14">
-        <v>9.560468970537785</v>
+        <v>9.577215889117459</v>
       </c>
       <c r="L14">
-        <v>6.740949540035077</v>
+        <v>9.128962431101378</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.035902701797453</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.7065216359857</v>
       </c>
       <c r="O14">
-        <v>16.76271345610634</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10.54861944809309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.80309023852467</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10.36971277238798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.92830206268176</v>
+        <v>26.90400691610193</v>
       </c>
       <c r="C15">
-        <v>19.5148444642213</v>
+        <v>19.51352211921686</v>
       </c>
       <c r="D15">
-        <v>6.931110458323367</v>
+        <v>6.951637020028202</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>15.60548400709234</v>
+        <v>15.37404112243133</v>
       </c>
       <c r="G15">
-        <v>14.61066957941601</v>
+        <v>15.35572964796574</v>
       </c>
       <c r="H15">
-        <v>6.672057925899458</v>
+        <v>6.675615665763307</v>
       </c>
       <c r="I15">
-        <v>3.378682340466617</v>
+        <v>3.351958208839773</v>
       </c>
       <c r="J15">
-        <v>6.975121637315112</v>
+        <v>7.227238809873977</v>
       </c>
       <c r="K15">
-        <v>9.58055678624344</v>
+        <v>9.602234895210959</v>
       </c>
       <c r="L15">
-        <v>6.770356577035382</v>
+        <v>9.139223157977035</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.051644076371105</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.737824766462643</v>
       </c>
       <c r="O15">
-        <v>16.51975402908539</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.47241511744811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.55604439193955</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>10.32412247029282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09418906209439</v>
+        <v>26.07868596742163</v>
       </c>
       <c r="C16">
-        <v>18.97393760758818</v>
+        <v>18.98468288363264</v>
       </c>
       <c r="D16">
-        <v>6.882168267095937</v>
+        <v>6.879095447354312</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.64422784562055</v>
+        <v>15.54285887834472</v>
       </c>
       <c r="G16">
-        <v>14.58375985309582</v>
+        <v>14.4672492477115</v>
       </c>
       <c r="H16">
-        <v>6.454041166590938</v>
+        <v>6.459407962882797</v>
       </c>
       <c r="I16">
-        <v>3.286623742538191</v>
+        <v>3.273775428229875</v>
       </c>
       <c r="J16">
-        <v>7.047206240574785</v>
+        <v>7.511504660479683</v>
       </c>
       <c r="K16">
-        <v>9.803347316582514</v>
+        <v>9.813375185058536</v>
       </c>
       <c r="L16">
-        <v>6.74973075902893</v>
+        <v>9.224428670281384</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.246151693247023</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.723857750791129</v>
       </c>
       <c r="O16">
-        <v>16.10368674110612</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.56511314327861</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.13402766221726</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>10.51263222692143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.47288213968742</v>
+        <v>25.46061368561431</v>
       </c>
       <c r="C17">
-        <v>18.60998858233013</v>
+        <v>18.65016520745158</v>
       </c>
       <c r="D17">
-        <v>7.116545441144477</v>
+        <v>7.108985941925764</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.1092333052509</v>
+        <v>16.04136946778063</v>
       </c>
       <c r="G17">
-        <v>15.05429194028206</v>
+        <v>14.55853165190133</v>
       </c>
       <c r="H17">
-        <v>5.703721761033237</v>
+        <v>5.708992946974048</v>
       </c>
       <c r="I17">
-        <v>3.233969367352602</v>
+        <v>3.228784646946437</v>
       </c>
       <c r="J17">
-        <v>7.161691891375141</v>
+        <v>7.714179580894899</v>
       </c>
       <c r="K17">
-        <v>9.98070776039158</v>
+        <v>9.974409496481494</v>
       </c>
       <c r="L17">
-        <v>6.684879754133663</v>
+        <v>9.30146761004611</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.397125642824314</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.66158790482841</v>
       </c>
       <c r="O17">
-        <v>16.23110278038101</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10.80925772828893</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.26455957423894</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>10.78030879633969</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.97880688584338</v>
+        <v>24.96549972950325</v>
       </c>
       <c r="C18">
-        <v>18.33564933730526</v>
+        <v>18.43372312868161</v>
       </c>
       <c r="D18">
-        <v>7.638943498455565</v>
+        <v>7.636762514492243</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.01693011146708</v>
+        <v>16.92859721071099</v>
       </c>
       <c r="G18">
-        <v>16.02938000801445</v>
+        <v>15.34162780115938</v>
       </c>
       <c r="H18">
-        <v>4.423469092414275</v>
+        <v>4.427612835209756</v>
       </c>
       <c r="I18">
-        <v>3.207461724695884</v>
+        <v>3.204694261763275</v>
       </c>
       <c r="J18">
-        <v>7.330906743055237</v>
+        <v>7.906286009852816</v>
       </c>
       <c r="K18">
-        <v>10.1609307074852</v>
+        <v>10.13089213211937</v>
       </c>
       <c r="L18">
-        <v>6.696958689832987</v>
+        <v>9.392864847796972</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.540999602997696</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.673114159633975</v>
       </c>
       <c r="O18">
-        <v>16.83781974929629</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.22389857670808</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.88269082027521</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.17862378099673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.6287061176135</v>
+        <v>24.61113875682326</v>
       </c>
       <c r="C19">
-        <v>18.22181056602056</v>
+        <v>18.39843553673197</v>
       </c>
       <c r="D19">
-        <v>8.381107318733534</v>
+        <v>8.390005518043274</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.19067291796109</v>
+        <v>18.04927928603146</v>
       </c>
       <c r="G19">
-        <v>17.26332093085738</v>
+        <v>16.47141890057824</v>
       </c>
       <c r="H19">
-        <v>3.04298663295079</v>
+        <v>3.032129753529799</v>
       </c>
       <c r="I19">
-        <v>3.213420073076104</v>
+        <v>3.210979038649836</v>
       </c>
       <c r="J19">
-        <v>7.52405869648462</v>
+        <v>8.085856358771224</v>
       </c>
       <c r="K19">
-        <v>10.3446213150922</v>
+        <v>10.28219160460209</v>
       </c>
       <c r="L19">
-        <v>6.945063609703721</v>
+        <v>9.492631103322882</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.680061434784322</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.917712672438052</v>
       </c>
       <c r="O19">
-        <v>17.78488473718094</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.72305918374441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.84642981425234</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>11.63773662389443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.7189549194233</v>
+        <v>24.68837061547783</v>
       </c>
       <c r="C20">
-        <v>18.45121494190021</v>
+        <v>18.7616306099106</v>
       </c>
       <c r="D20">
-        <v>9.655074997167581</v>
+        <v>9.692401244806808</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.11122785570024</v>
+        <v>19.82396623846109</v>
       </c>
       <c r="G20">
-        <v>19.28092408253863</v>
+        <v>18.61211261360314</v>
       </c>
       <c r="H20">
-        <v>2.0538668080587</v>
+        <v>2.02989425128075</v>
       </c>
       <c r="I20">
-        <v>3.295816242098319</v>
+        <v>3.283918372437631</v>
       </c>
       <c r="J20">
-        <v>7.79761851842103</v>
+        <v>8.224952500405218</v>
       </c>
       <c r="K20">
-        <v>10.54322238626539</v>
+        <v>10.41207031897533</v>
       </c>
       <c r="L20">
-        <v>7.749144386619049</v>
+        <v>9.582357120104959</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.840671035646011</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.71059925385834</v>
       </c>
       <c r="O20">
-        <v>19.57566822850354</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.49116002116501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>19.66736668331298</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>12.29626928403881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.13434359388606</v>
+        <v>26.08476634773115</v>
       </c>
       <c r="C21">
-        <v>19.42774826679362</v>
+        <v>19.74019711533245</v>
       </c>
       <c r="D21">
-        <v>10.12151577405827</v>
+        <v>10.2321807356449</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.70409246033344</v>
+        <v>20.07421839361124</v>
       </c>
       <c r="G21">
-        <v>19.97710864936774</v>
+        <v>21.06498181963581</v>
       </c>
       <c r="H21">
-        <v>2.313234784319891</v>
+        <v>2.273124652332776</v>
       </c>
       <c r="I21">
-        <v>3.472554070456303</v>
+        <v>3.434529409199508</v>
       </c>
       <c r="J21">
-        <v>7.785044994911069</v>
+        <v>7.556403639587618</v>
       </c>
       <c r="K21">
-        <v>10.24718197280877</v>
+        <v>10.03775147086107</v>
       </c>
       <c r="L21">
-        <v>7.950122366519238</v>
+        <v>9.345307604230227</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.630931983701837</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.894864110508228</v>
       </c>
       <c r="O21">
-        <v>20.75058349682707</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.6236221528986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>20.8594917794949</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.16592227252854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.03685363092265</v>
+        <v>26.97566106662539</v>
       </c>
       <c r="C22">
-        <v>20.00914502253475</v>
+        <v>20.31224824356659</v>
       </c>
       <c r="D22">
-        <v>10.35929142083823</v>
+        <v>10.52076747904364</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.03611882168083</v>
+        <v>20.16941470627931</v>
       </c>
       <c r="G22">
-        <v>20.40089904814496</v>
+        <v>22.7388974487599</v>
       </c>
       <c r="H22">
-        <v>2.472561940397021</v>
+        <v>2.422295747519222</v>
       </c>
       <c r="I22">
-        <v>3.581463800150585</v>
+        <v>3.525708403430207</v>
       </c>
       <c r="J22">
-        <v>7.775038640736351</v>
+        <v>7.164093152482868</v>
       </c>
       <c r="K22">
-        <v>10.05618669562999</v>
+        <v>9.789965761364334</v>
       </c>
       <c r="L22">
-        <v>8.034743814976391</v>
+        <v>9.200930973389488</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.501443305428758</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.969292116498066</v>
       </c>
       <c r="O22">
-        <v>21.41388588685795</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.7031484170581</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>21.53232411818196</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.0591275581536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.56133273489268</v>
+        <v>26.50665670716965</v>
       </c>
       <c r="C23">
-        <v>19.66462869757616</v>
+        <v>19.98446989570179</v>
       </c>
       <c r="D23">
-        <v>10.22875564985819</v>
+        <v>10.35549700500927</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.88320490084984</v>
+        <v>20.17366849550584</v>
       </c>
       <c r="G23">
-        <v>20.21814058211761</v>
+        <v>21.68721875945175</v>
       </c>
       <c r="H23">
-        <v>2.388155169278354</v>
+        <v>2.34392619405765</v>
       </c>
       <c r="I23">
-        <v>3.520085598103135</v>
+        <v>3.473194224029691</v>
       </c>
       <c r="J23">
-        <v>7.787610344894853</v>
+        <v>7.426854596539882</v>
       </c>
       <c r="K23">
-        <v>10.17096827084759</v>
+        <v>9.940701660262562</v>
       </c>
       <c r="L23">
-        <v>7.991309697031898</v>
+        <v>9.285857092721168</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.591589567631861</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.931833597163573</v>
       </c>
       <c r="O23">
-        <v>21.0545590784995</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.67901656721362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.16800407824308</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.15854580137041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.67307784582113</v>
+        <v>24.64208351493513</v>
       </c>
       <c r="C24">
-        <v>18.37036611515819</v>
+        <v>18.68929011916752</v>
       </c>
       <c r="D24">
-        <v>9.728570707466719</v>
+        <v>9.766755059325384</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.27678182809293</v>
+        <v>19.98450474815252</v>
       </c>
       <c r="G24">
-        <v>19.48042500742665</v>
+        <v>18.78860705505823</v>
       </c>
       <c r="H24">
-        <v>2.061153574554725</v>
+        <v>2.037152009792186</v>
       </c>
       <c r="I24">
-        <v>3.289433837075699</v>
+        <v>3.275631765662025</v>
       </c>
       <c r="J24">
-        <v>7.831741409089339</v>
+        <v>8.26011178483089</v>
       </c>
       <c r="K24">
-        <v>10.59360971615381</v>
+        <v>10.45512742832052</v>
       </c>
       <c r="L24">
-        <v>7.821463094075454</v>
+        <v>9.610165819597924</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.880815693568056</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.782511475653002</v>
       </c>
       <c r="O24">
-        <v>19.65073473310486</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.57657402900471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>19.74432379092101</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>12.37740978002333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.45676611326591</v>
+        <v>22.44783838296634</v>
       </c>
       <c r="C25">
-        <v>16.87343167875527</v>
+        <v>17.05345517670805</v>
       </c>
       <c r="D25">
-        <v>9.163882899829096</v>
+        <v>9.190838285949262</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.65178998117695</v>
+        <v>19.45912320446475</v>
       </c>
       <c r="G25">
-        <v>18.74261473785389</v>
+        <v>17.9373932405739</v>
       </c>
       <c r="H25">
-        <v>1.693202157491239</v>
+        <v>1.683121850011849</v>
       </c>
       <c r="I25">
-        <v>3.033695315419661</v>
+        <v>3.048044210129701</v>
       </c>
       <c r="J25">
-        <v>7.89728660702609</v>
+        <v>8.375853484243152</v>
       </c>
       <c r="K25">
-        <v>11.06992333553934</v>
+        <v>10.93243874024463</v>
       </c>
       <c r="L25">
-        <v>7.632474660231853</v>
+        <v>9.946946053450464</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.172810056974868</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.608636126998554</v>
       </c>
       <c r="O25">
-        <v>18.01906310955289</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.50687355578917</v>
+        <v>18.09040558999226</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12.37497201937138</v>
       </c>
     </row>
   </sheetData>
